--- a/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ04213366" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ04551185" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ04885139" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ05275545" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ05650524" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ05999035" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ06347369" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ06713689" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ07072057" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ00359534" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ00684686" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01056206" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ01429554" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ01821064" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02168926" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ02512122" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ02889520" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03294631" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -745,7 +745,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -989,7 +989,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1233,7 +1233,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1477,7 +1477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1721,7 +1721,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1965,7 +1965,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2209,7 +2209,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2453,7 +2453,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ00359534" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ00684686" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ01056206" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ01429554" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ01821064" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02168926" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ02512122" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ02889520" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ03294631" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ42571908" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42837394" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ43092030" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43352913" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ43615467" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ43863184" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ44114219" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ44448140" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ44701167" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6806.988707408994</v>
+        <v>4644.033452152115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08178685524448204</v>
+        <v>0.2275519475359627</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-295.1044050194071</v>
+        <v>1259.580724207007</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7266054741628855</v>
+        <v>0.3014663443020499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1014.904369661455</v>
+        <v>-234.4475150146939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1919254140812487</v>
+        <v>0.8590110970117895</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-570.7169969575516</v>
+        <v>1351.989317747633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.680919120149773</v>
+        <v>0.001777677474499685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41.02317345675375</v>
+        <v>-417.9365740830669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.782109738037766</v>
+        <v>0.3464364650698138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1783.771755333932</v>
+        <v>409.8289596484831</v>
       </c>
       <c r="C7" t="n">
-        <v>1.178947564028036e-07</v>
+        <v>0.423152580770461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-69.27747059142348</v>
+        <v>90.5784979968677</v>
       </c>
       <c r="C8" t="n">
-        <v>6.709415123929148e-06</v>
+        <v>0.8408966438317084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>403.8548086600437</v>
+        <v>-54.12294791343422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009772218628424333</v>
+        <v>0.7162762149779207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>543.5896513061009</v>
+        <v>-1800.366894239613</v>
       </c>
       <c r="C10" t="n">
-        <v>3.723277344165074e-09</v>
+        <v>8.96417527196273e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05579116247015586</v>
+        <v>-69.46632050016964</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5072955771304771</v>
+        <v>8.37370306605484e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001547730651545704</v>
+        <v>405.5181566961747</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1113672050833897</v>
+        <v>0.009510288896324097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-20.90502447095126</v>
+        <v>553.9403836953281</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3236500219226827</v>
+        <v>1.927127366465648e-09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.00627539997233</v>
+        <v>0.05040345891486112</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2093117529983139</v>
+        <v>0.5494605434252126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2288.405710611868</v>
+        <v>0.0001530789250814312</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2075999607697307</v>
+        <v>0.1165415114543687</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>295.1773522647063</v>
+        <v>-19.40718420267407</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8852653197162652</v>
+        <v>0.3596407605547761</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>32.12629635240424</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2080256578108574</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2317.251993678575</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2023612537549469</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>380.5105063820972</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8526801028436616</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8432.49589994121</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07648351207206051</v>
+      <c r="B20" t="n">
+        <v>8420.158835384709</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.07726174037279562</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5762.06840479132</v>
+        <v>3914.251017430561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1374966423977583</v>
+        <v>0.303743997017235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-257.5062073159237</v>
+        <v>-327.6521042077725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7665960885819513</v>
+        <v>0.7848302616069862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.691838001239</v>
+        <v>-955.6603608785138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1574336757270329</v>
+        <v>0.4477608651906766</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1575.730047039865</v>
+        <v>1328.384998783794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2575573919368829</v>
+        <v>0.002279739592969373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178.1105937506626</v>
+        <v>-112.5392663489008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2265549287062226</v>
+        <v>0.8005716731690398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1584.505049004272</v>
+        <v>527.5199624731385</v>
       </c>
       <c r="C7" t="n">
-        <v>2.727086789811375e-06</v>
+        <v>0.3049281298792786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-69.25670136016734</v>
+        <v>-145.2909138302824</v>
       </c>
       <c r="C8" t="n">
-        <v>7.996189874757806e-06</v>
+        <v>0.7472150229434593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>470.8558888078227</v>
+        <v>-177.4632532474532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002924174902039047</v>
+        <v>0.2309028753319839</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.5508974409287</v>
+        <v>-1579.145785034297</v>
       </c>
       <c r="C10" t="n">
-        <v>3.563050244797332e-10</v>
+        <v>2.943666662974477e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05821834517873124</v>
+        <v>-69.3410499640552</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4944782353880196</v>
+        <v>1.005359324005384e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001455582006301355</v>
+        <v>478.7921832291381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1380018645635728</v>
+        <v>0.002495474183642769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-15.11205115164949</v>
+        <v>584.3466265590605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4762976777567566</v>
+        <v>2.6829843912693e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.51688441151818</v>
+        <v>0.0549106285258352</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1713066112034359</v>
+        <v>0.5197612197224823</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2817.464215811745</v>
+        <v>0.0001460509792204909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1176330089687711</v>
+        <v>0.1380387234504449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.20650736742573</v>
+        <v>-14.11217957438935</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9657705009655229</v>
+        <v>0.5065310357448898</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>34.21076063586271</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1759960677707704</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2827.912284469581</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1171087186991668</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>110.5191206845431</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.957160701588704</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>11964.03299353567</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01181470441148861</v>
+      <c r="B20" t="n">
+        <v>11981.28523687028</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01176815565769985</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6202.711336730988</v>
+        <v>4706.168477245075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1088534938627676</v>
+        <v>0.2164436657269895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>283.1942529384913</v>
+        <v>-489.3965132425654</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7330797477237193</v>
+        <v>0.6648169104375149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1297.466043714167</v>
+        <v>-723.9317460772255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08694530244599656</v>
+        <v>0.5927835986216679</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-678.0674904855578</v>
+        <v>1053.587779004552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6124090013549162</v>
+        <v>0.01545063038110657</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119.0543098306776</v>
+        <v>87.93446310107845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4155231393358964</v>
+        <v>0.8427540530666984</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1634.567939306417</v>
+        <v>653.6520206219784</v>
       </c>
       <c r="C7" t="n">
-        <v>1.20673831257469e-06</v>
+        <v>0.2014006958777576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-67.77828792366174</v>
+        <v>126.7584625331064</v>
       </c>
       <c r="C8" t="n">
-        <v>1.237618196962475e-05</v>
+        <v>0.777532229222377</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.5846703731098</v>
+        <v>-107.4227538769913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000893277867299593</v>
+        <v>0.4655584316337913</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>577.3368106588309</v>
+        <v>-1620.03142177237</v>
       </c>
       <c r="C10" t="n">
-        <v>3.690637181131452e-10</v>
+        <v>1.495178157918529e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05423376110093569</v>
+        <v>-68.21860504872173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5240855912498538</v>
+        <v>1.395541685410303e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001138000819532084</v>
+        <v>524.8292166963994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2443975382542506</v>
+        <v>0.0008339673436841426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.853944326513586</v>
+        <v>582.5574106859281</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8166199872283677</v>
+        <v>2.724584590591264e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.2181689990354</v>
+        <v>0.04964761157935511</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3373384223919905</v>
+        <v>0.5599930137625136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1217.228202059112</v>
+        <v>0.000119875411395897</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5010801532119853</v>
+        <v>0.2213001609516545</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-133.7799902394688</v>
+        <v>-4.44858714606772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9475804252980544</v>
+        <v>0.8318031227356391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>23.12105656505701</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3602844892221981</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1159.064355321884</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5229896538548147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-119.5502680554674</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9532386248431204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>7629.188091602754</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1068866679831537</v>
+      <c r="B20" t="n">
+        <v>7364.993361390864</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1203449654914517</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6050.027664607282</v>
+        <v>4256.821720600346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1180635230311368</v>
+        <v>0.2626716464921651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-329.2596070436153</v>
+        <v>12.3531547816026</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6938555521049303</v>
+        <v>0.9914888067460139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>892.890264060135</v>
+        <v>-874.8573144832683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2454295898933426</v>
+        <v>0.5036614479711197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-942.689503235188</v>
+        <v>1123.055520109726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4845478415974105</v>
+        <v>0.009077571836133056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106.3437897756269</v>
+        <v>-212.2018473617534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4653388596397964</v>
+        <v>0.6282375641620979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1578.280938807615</v>
+        <v>735.1412878048258</v>
       </c>
       <c r="C7" t="n">
-        <v>2.204253933983054e-06</v>
+        <v>0.1498519331998173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-63.9541672457687</v>
+        <v>31.32070942083993</v>
       </c>
       <c r="C8" t="n">
-        <v>3.920804245624989e-05</v>
+        <v>0.9440770077295704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>416.1438527566946</v>
+        <v>-108.0440597176981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007357918949200375</v>
+        <v>0.4605870865145261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>603.1411035113056</v>
+        <v>-1584.525860743264</v>
       </c>
       <c r="C10" t="n">
-        <v>5.331200116296283e-11</v>
+        <v>1.987031020235837e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1312489365043385</v>
+        <v>-64.55479088853315</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1279844346118029</v>
+        <v>3.980421382610205e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.051781590094211e-05</v>
+        <v>421.4113737360316</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4204440921401528</v>
+        <v>0.00665123064460719</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-22.19119750718527</v>
+        <v>611.8541152663613</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2884990199635667</v>
+        <v>2.833931301818985e-11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.79719475222243</v>
+        <v>0.1258790090444672</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2248774169977572</v>
+        <v>0.144633798831541</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1276.859783408388</v>
+        <v>8.142982614164123e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4872206252074937</v>
+        <v>0.4161786232101358</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.41312654019703</v>
+        <v>-21.21105466846093</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9755487071069832</v>
+        <v>0.3106751817337949</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>29.58580101292588</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2442506527472381</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1184.795048234979</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.520198014432715</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>94.92384443555466</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9628656667129635</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8904.241954697782</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05645997192858155</v>
+      <c r="B20" t="n">
+        <v>8690.324896434027</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.06306248521746817</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6563.729006524785</v>
+        <v>4616.210344529865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08835062160743697</v>
+        <v>0.2232276090086805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-142.7923845264436</v>
+        <v>242.6448731043715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.864023192704016</v>
+        <v>0.8314867570371377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1123.144859674306</v>
+        <v>-479.0408493746133</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1404313953025402</v>
+        <v>0.7175959754467282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-933.5451001310553</v>
+        <v>1300.133265009965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4794603211920702</v>
+        <v>0.002618729595844446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92.4463458010365</v>
+        <v>-95.92128583008429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5288080000301988</v>
+        <v>0.8291326377689542</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1640.814473267944</v>
+        <v>536.8813156355152</v>
       </c>
       <c r="C7" t="n">
-        <v>1.120154907362882e-06</v>
+        <v>0.2928478375754986</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-61.00724235087451</v>
+        <v>315.9495425047186</v>
       </c>
       <c r="C8" t="n">
-        <v>8.653324839736053e-05</v>
+        <v>0.4827581330340365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>581.0505791862026</v>
+        <v>-94.10420335203118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002093697495835811</v>
+        <v>0.523399398458771</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4810299461979</v>
+        <v>-1628.783434811474</v>
       </c>
       <c r="C10" t="n">
-        <v>5.231366567133871e-09</v>
+        <v>1.310530007129827e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03894940737689839</v>
+        <v>-61.0148607284864</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6493748691043369</v>
+        <v>9.928074001073888e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002172217390436514</v>
+        <v>581.1821145107856</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02653112694055237</v>
+        <v>0.0002103609359352657</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-19.78308746472202</v>
+        <v>537.3036017632961</v>
       </c>
       <c r="C13" t="n">
-        <v>0.347168359686119</v>
+        <v>4.021290920617656e-09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.64857613340727</v>
+        <v>0.03404486054990661</v>
       </c>
       <c r="C14" t="n">
-        <v>0.309475066120353</v>
+        <v>0.691226778659159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2335.485674921661</v>
+        <v>0.0002221177764872211</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1953995232886134</v>
+        <v>0.02369900691859916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-775.8549822924086</v>
+        <v>-19.76726149393733</v>
       </c>
       <c r="C16" t="n">
-        <v>0.704793102853941</v>
+        <v>0.3479282301561433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>25.6745233966096</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3095733508074648</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2435.310389660116</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1781639322313628</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-766.0886086038317</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7088623368222362</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9398.069237815555</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04447534042703286</v>
+      <c r="B20" t="n">
+        <v>9273.79217186075</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.04767509275875589</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7409.006377054513</v>
+        <v>5630.068775267594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05745378136429708</v>
+        <v>0.1428008527110651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-14.75545217075887</v>
+        <v>-52.08093293694259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.985981981359044</v>
+        <v>0.9640200742810008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1084.72637794987</v>
+        <v>-605.179138295666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1562434672203085</v>
+        <v>0.6537054571751861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1020.232230398277</v>
+        <v>1133.649105707281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4423342682339614</v>
+        <v>0.009838739271961411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92.3483904492961</v>
+        <v>-239.3562048301174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5320556439065265</v>
+        <v>0.5924763014345411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1654.641104325729</v>
+        <v>671.291750528794</v>
       </c>
       <c r="C7" t="n">
-        <v>1.071624883602856e-06</v>
+        <v>0.1942079749171195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-69.78327818591177</v>
+        <v>-253.7496444331979</v>
       </c>
       <c r="C8" t="n">
-        <v>8.504855995665295e-06</v>
+        <v>0.5749337864511265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>429.9065147854641</v>
+        <v>-90.96026741271753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006899909482753461</v>
+        <v>0.5400733406265461</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>557.4516648415231</v>
+        <v>-1642.25723079824</v>
       </c>
       <c r="C10" t="n">
-        <v>1.640100032643004e-09</v>
+        <v>1.247686070660062e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02051628519214554</v>
+        <v>-69.10774747598111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8134605679759324</v>
+        <v>1.312878320124287e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002052739663556665</v>
+        <v>436.452953476784</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04492078362082445</v>
+        <v>0.006131985570294613</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-10.76614053638803</v>
+        <v>560.8764291944251</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6135188375039896</v>
+        <v>1.282961195823666e-09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.56905347834629</v>
+        <v>0.01282395089409387</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3342871847720097</v>
+        <v>0.8827742836336731</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3092.534445679825</v>
+        <v>0.0002068678043746486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09183005559610244</v>
+        <v>0.04397948283528075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-745.6745216467914</v>
+        <v>-10.03813666853822</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7151543251542402</v>
+        <v>0.6379027286319713</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24.21220552981119</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3415255415076152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3050.933191399451</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09681690936300867</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-542.811876393238</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7909549025334278</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9129.676391473702</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0546420184911111</v>
+      <c r="B20" t="n">
+        <v>8977.371803387623</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05920360400415661</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5740.740525644034</v>
+        <v>4074.82382170451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1361983053530561</v>
+        <v>0.280514517340542</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.86217317039439</v>
+        <v>375.5120428957332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9237653662240712</v>
+        <v>0.7485689450751132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1071.339953664165</v>
+        <v>-1160.633341284959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1620559800028339</v>
+        <v>0.3665536214972754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-852.1915616246492</v>
+        <v>1022.126511586723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.524985307305452</v>
+        <v>0.01715284492761364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147.8075073074612</v>
+        <v>-246.5857416024999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.310347895641455</v>
+        <v>0.575579155603367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1645.610708882082</v>
+        <v>771.8022296471045</v>
       </c>
       <c r="C7" t="n">
-        <v>8.828986699257527e-07</v>
+        <v>0.1274517056996613</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-65.1396306984672</v>
+        <v>-158.5667738036998</v>
       </c>
       <c r="C8" t="n">
-        <v>2.637191917271758e-05</v>
+        <v>0.7218368937657154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>455.5743581546234</v>
+        <v>-147.869009532298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00347764118756483</v>
+        <v>0.3133518703032994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>570.3372822934135</v>
+        <v>-1643.745423869195</v>
       </c>
       <c r="C10" t="n">
-        <v>3.55155412996311e-10</v>
+        <v>8.795368090451088e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03539225595805363</v>
+        <v>-65.38866098894498</v>
       </c>
       <c r="C11" t="n">
-        <v>0.675376497701776</v>
+        <v>3.036508790352308e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002108481395812211</v>
+        <v>461.4404338808492</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02792757733211021</v>
+        <v>0.003082058369529302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-31.62881895523788</v>
+        <v>574.5771284755999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1302292767829674</v>
+        <v>2.579736010044361e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.29968466520808</v>
+        <v>0.02989054483393282</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1989274758512279</v>
+        <v>0.7237650804651021</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1847.067877079871</v>
+        <v>0.00021163510056901</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3057268137063533</v>
+        <v>0.02773720516794215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1360.500348878649</v>
+        <v>-30.9274738520122</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5038027788416443</v>
+        <v>0.1390482579281012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>32.13634910855878</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2012452267968156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1909.540908934311</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.290484882447721</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1478.320865445851</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4682626594727022</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>12536.92686667863</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.007644094921318959</v>
+      <c r="B20" t="n">
+        <v>12586.83088491945</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.007491970578087038</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8073.127165444217</v>
+        <v>6227.622414955316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0375281944173512</v>
+        <v>0.1033420250159787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.64208327085584</v>
+        <v>103.4385496721118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9569821669125449</v>
+        <v>0.9300073122157484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1048.498925175695</v>
+        <v>-382.4932967479962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1877507150779752</v>
+        <v>0.7775213401443821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-886.314096182678</v>
+        <v>1067.032181484507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.53173033100381</v>
+        <v>0.01541488892455949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135.1542630337752</v>
+        <v>74.53495963219387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3552723544143869</v>
+        <v>0.8667249238807009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1674.56981975497</v>
+        <v>717.6865874179355</v>
       </c>
       <c r="C7" t="n">
-        <v>6.699298471504976e-07</v>
+        <v>0.1634286690715814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-69.5594747883455</v>
+        <v>281.8057141992323</v>
       </c>
       <c r="C8" t="n">
-        <v>7.502310976718844e-06</v>
+        <v>0.5289688405269284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>511.078326132632</v>
+        <v>-133.1738065262049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001248187273814274</v>
+        <v>0.3652630749260476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>553.0307239459901</v>
+        <v>-1667.410043674556</v>
       </c>
       <c r="C10" t="n">
-        <v>1.705344942384565e-09</v>
+        <v>7.47652907987557e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009475572128289256</v>
+        <v>-70.27385399954755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9136702185181468</v>
+        <v>7.926228378163511e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001852998799530571</v>
+        <v>515.0253396340205</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0682574092632736</v>
+        <v>0.001145502322291033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-29.7740912969607</v>
+        <v>557.7239170255369</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1612815667544159</v>
+        <v>1.236491081323668e-09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.08744292417882</v>
+        <v>0.003388029098431777</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4777475011210488</v>
+        <v>0.9691415643580197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1878.384298742489</v>
+        <v>0.0001937353552934692</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3028129217884509</v>
+        <v>0.05728733441787998</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>898.9779458644527</v>
+        <v>-29.73321626448892</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6610371815594958</v>
+        <v>0.1620882210721586</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17.80855867981328</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4845774690626766</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2033.179595399907</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2659904823779756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>912.9063006822352</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6570307490918407</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9963.651859555124</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.03465529978117134</v>
+      <c r="B20" t="n">
+        <v>9827.052167607533</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03735512962446869</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5356.753459729662</v>
+        <v>3396.000392858816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1670410164320864</v>
+        <v>0.3747096886051914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.446595597514374</v>
+        <v>343.9150666550402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9958211550135143</v>
+        <v>0.7644129909556878</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1411.688578695532</v>
+        <v>-132.8855175344169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0709214715842461</v>
+        <v>0.9174232307211878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1039.922823343088</v>
+        <v>1521.434741679133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4500126095906699</v>
+        <v>0.0004902573056761266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-223.8828812326485</v>
+        <v>-270.6723978921511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1295890202206784</v>
+        <v>0.5426302504346213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1755.004927195929</v>
+        <v>529.0057854179701</v>
       </c>
       <c r="C7" t="n">
-        <v>1.858795194460854e-07</v>
+        <v>0.3020974596467637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-72.24651896559885</v>
+        <v>-81.88844899926494</v>
       </c>
       <c r="C8" t="n">
-        <v>3.095925098065167e-06</v>
+        <v>0.8551808574385217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>513.4539545481807</v>
+        <v>-237.5645718102636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001086753713187133</v>
+        <v>0.1095090602834076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.1491118417166</v>
+        <v>-1752.187968258996</v>
       </c>
       <c r="C10" t="n">
-        <v>2.643634656816968e-09</v>
+        <v>1.939517586333166e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04025496862446013</v>
+        <v>-71.44830089713605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6362846718146022</v>
+        <v>5.469279958594823e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001235867297681089</v>
+        <v>517.2667912669658</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2134898284120305</v>
+        <v>0.00100387779126534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.87417578157468</v>
+        <v>557.6641702913854</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8924896695900284</v>
+        <v>1.820221220319456e-09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.63282967093534</v>
+        <v>0.03445314531887161</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1202365943502682</v>
+        <v>0.6860088132519641</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2407.943134170489</v>
+        <v>0.0001258599978048618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1888728238795295</v>
+        <v>0.2071400624804141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1509.378333220657</v>
+        <v>3.168552090992453</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4610353218687315</v>
+        <v>0.8816974998903879</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>39.93576281999182</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1178977179837463</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2447.139472263284</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1829466010856191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1339.048560701979</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5136718508553995</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>11759.79278552999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01231345660218937</v>
+      <c r="B20" t="n">
+        <v>11636.86112859376</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01336352205461581</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42571908" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42837394" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ43092030" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43352913" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43615467" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ43863184" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ44114219" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ44448140" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ44701167" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ37847484" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ38128476" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ38390602" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ38651166" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ38909914" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ39173648" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ39426374" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ39773159" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ40026733" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4644.033452152115</v>
+        <v>8471.484023576697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2275519475359627</v>
+        <v>0.007789454624852856</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1259.580724207007</v>
+        <v>1202.91681436473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3014663443020499</v>
+        <v>0.3237179624293176</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-234.4475150146939</v>
+        <v>-159.1548727820026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8590110970117895</v>
+        <v>0.9039989314753765</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1351.989317747633</v>
+        <v>1343.50409074776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001777677474499685</v>
+        <v>0.001904795805325258</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417.9365740830669</v>
+        <v>-423.4640039928167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3464364650698138</v>
+        <v>0.340237286704573</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.8289596484831</v>
+        <v>428.4818319971113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.423152580770461</v>
+        <v>0.4024079324924151</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.5784979968677</v>
+        <v>105.4050962795262</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8408966438317084</v>
+        <v>0.8153166625886411</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-54.12294791343422</v>
+        <v>-51.99473862204786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7162762149779207</v>
+        <v>0.7270516013796073</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1800.366894239613</v>
+        <v>-1792.415801216938</v>
       </c>
       <c r="C10" t="n">
-        <v>8.96417527196273e-08</v>
+        <v>1.027174142114593e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-69.46632050016964</v>
+        <v>-68.6323411082019</v>
       </c>
       <c r="C11" t="n">
-        <v>8.37370306605484e-06</v>
+        <v>1.069133753815934e-05</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>405.5181566961747</v>
+        <v>332.8034421178901</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009510288896324097</v>
+        <v>0.02741358790951412</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>553.9403836953281</v>
+        <v>518.7276375599293</v>
       </c>
       <c r="C13" t="n">
-        <v>1.927127366465648e-09</v>
+        <v>8.499176814484142e-09</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05040345891486112</v>
+        <v>0.04390360215938952</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5494605434252126</v>
+        <v>0.6018682252884338</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001530789250814312</v>
+        <v>0.0001544284310010299</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1165415114543687</v>
+        <v>0.1134588463734251</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-19.40718420267407</v>
+        <v>-25.57114255722337</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3596407605547761</v>
+        <v>0.2212344545137763</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.12629635240424</v>
+        <v>8.238285150004652</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2080256578108574</v>
+        <v>0.7035076161521496</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2317.251993678575</v>
+        <v>-1121.221914560181</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2023612537549469</v>
+        <v>0.5063703655031857</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.5105063820972</v>
+        <v>175.2752195898204</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8526801028436616</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8420.158835384709</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.07726174037279562</v>
+        <v>0.9317445835755375</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3914.251017430561</v>
+        <v>9388.195090780291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.303743997017235</v>
+        <v>0.002701674475805872</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-327.6521042077725</v>
+        <v>-451.400434536899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7848302616069862</v>
+        <v>0.7067964718492141</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-955.6603608785138</v>
+        <v>-888.0985406152272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4477608651906766</v>
+        <v>0.4807566086778076</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.384998783794</v>
+        <v>1299.012275283976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002279739592969373</v>
+        <v>0.002859400648191788</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112.5392663489008</v>
+        <v>-126.0076330132374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8005716731690398</v>
+        <v>0.777457866470011</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527.5199624731385</v>
+        <v>556.2778009023741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3049281298792786</v>
+        <v>0.2795875388886331</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-145.2909138302824</v>
+        <v>-119.2040214654118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7472150229434593</v>
+        <v>0.7915469735947752</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-177.4632532474532</v>
+        <v>-181.3939428661145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2309028753319839</v>
+        <v>0.221080816497548</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1579.145785034297</v>
+        <v>-1565.124921901055</v>
       </c>
       <c r="C10" t="n">
-        <v>2.943666662974477e-06</v>
+        <v>3.651503797419026e-06</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-69.3410499640552</v>
+        <v>-67.79046610848874</v>
       </c>
       <c r="C11" t="n">
-        <v>1.005359324005384e-05</v>
+        <v>1.578533431066389e-05</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>478.7921832291381</v>
+        <v>371.4342648783377</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002495474183642769</v>
+        <v>0.01491517339252044</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.3466265590605</v>
+        <v>536.1449361066989</v>
       </c>
       <c r="C13" t="n">
-        <v>2.6829843912693e-10</v>
+        <v>3.195449424177433e-09</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0549106285258352</v>
+        <v>0.04536509919653772</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5197612197224823</v>
+        <v>0.5947825596164378</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001460509792204909</v>
+        <v>0.0001478251306894226</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1380387234504449</v>
+        <v>0.1336174544394857</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.11217957438935</v>
+        <v>-23.13032235971275</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5065310357448898</v>
+        <v>0.2697829529106897</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.21076063586271</v>
+        <v>0.1829825735360178</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1759960677707704</v>
+        <v>0.9931736160825645</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2827.912284469581</v>
+        <v>-1139.687690707527</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1171087186991668</v>
+        <v>0.4966918806460892</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.5191206845431</v>
+        <v>-162.0825847955971</v>
       </c>
       <c r="C19" t="n">
-        <v>0.957160701588704</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11981.28523687028</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01176815565769985</v>
+        <v>0.9371716695104371</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4706.168477245075</v>
+        <v>8014.076755941342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2164436657269895</v>
+        <v>0.01116143965712045</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-489.3965132425654</v>
+        <v>-563.8481305871351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6648169104375149</v>
+        <v>0.6174072916057645</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-723.9317460772255</v>
+        <v>-650.8990563248137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5927835986216679</v>
+        <v>0.6304849457778881</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1053.587779004552</v>
+        <v>1043.496637496612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01545063038110657</v>
+        <v>0.01647454936231699</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.93446310107845</v>
+        <v>79.77899430493127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8427540530666984</v>
+        <v>0.8571927588910685</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>653.6520206219784</v>
+        <v>677.344764391248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2014006958777576</v>
+        <v>0.1854443513866291</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126.7584625331064</v>
+        <v>132.3491331418018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.777532229222377</v>
+        <v>0.7680359839300567</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-107.4227538769913</v>
+        <v>-106.6847499392817</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4655584316337913</v>
+        <v>0.4687200899913418</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1620.03142177237</v>
+        <v>-1612.752160511142</v>
       </c>
       <c r="C10" t="n">
-        <v>1.495178157918529e-06</v>
+        <v>1.669533465519624e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-68.21860504872173</v>
+        <v>-67.32304504868026</v>
       </c>
       <c r="C11" t="n">
-        <v>1.395541685410303e-05</v>
+        <v>1.789329378116316e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>524.8292166963994</v>
+        <v>459.6000328632737</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008339673436841426</v>
+        <v>0.002393627830145819</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.5574106859281</v>
+        <v>552.3509917669783</v>
       </c>
       <c r="C13" t="n">
-        <v>2.724584590591264e-10</v>
+        <v>9.099364163634893e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04964761157935511</v>
+        <v>0.04531736300271553</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5599930137625136</v>
+        <v>0.5945937378289288</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000119875411395897</v>
+        <v>0.0001183842392713263</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2213001609516545</v>
+        <v>0.2271738556548191</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.44858714606772</v>
+        <v>-9.540648950135813</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8318031227356391</v>
+        <v>0.6447417735473917</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23.12105656505701</v>
+        <v>2.601363622802335</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3602844892221981</v>
+        <v>0.9039219068053328</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1159.064355321884</v>
+        <v>-129.2872323760942</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5229896538548147</v>
+        <v>0.9390024977104197</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-119.5502680554674</v>
+        <v>-316.866903504152</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9532386248431204</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7364.993361390864</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1203449654914517</v>
+        <v>0.8762734446991882</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4256.821720600346</v>
+        <v>8192.39428238071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2626716464921651</v>
+        <v>0.009495924628474582</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.3531547816026</v>
+        <v>-72.37535507570141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9914888067460139</v>
+        <v>0.9501452931032324</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-874.8573144832683</v>
+        <v>-820.0089836496758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5036614479711197</v>
+        <v>0.530825412281638</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1123.055520109726</v>
+        <v>1118.668414312749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009077571836133056</v>
+        <v>0.009376123052208415</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-212.2018473617534</v>
+        <v>-216.6081757430255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6282375641620979</v>
+        <v>0.6212429240950313</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>735.1412878048258</v>
+        <v>769.6073206336387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1498519331998173</v>
+        <v>0.131556930117415</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.32070942083993</v>
+        <v>39.37460614092288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9440770077295704</v>
+        <v>0.9297525899792032</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-108.0440597176981</v>
+        <v>-104.6030547941709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4605870865145261</v>
+        <v>0.4751171598847709</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1584.525860743264</v>
+        <v>-1587.191947043571</v>
       </c>
       <c r="C10" t="n">
-        <v>1.987031020235837e-06</v>
+        <v>1.926146621029515e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-64.55479088853315</v>
+        <v>-63.18524486528561</v>
       </c>
       <c r="C11" t="n">
-        <v>3.980421382610205e-05</v>
+        <v>5.706743621100948e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>421.4113737360316</v>
+        <v>347.0568621603508</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00665123064460719</v>
+        <v>0.02074430133079653</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>611.8541152663613</v>
+        <v>576.2717069552249</v>
       </c>
       <c r="C13" t="n">
-        <v>2.833931301818985e-11</v>
+        <v>1.46983807668839e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1258790090444672</v>
+        <v>0.121080034424218</v>
       </c>
       <c r="C14" t="n">
-        <v>0.144633798831541</v>
+        <v>0.1605366277659063</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.142982614164123e-05</v>
+        <v>8.004689215819033e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4161786232101358</v>
+        <v>0.4242954090772512</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.21105466846093</v>
+        <v>-27.48722775854593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3106751817337949</v>
+        <v>0.1832986539178213</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.58580101292588</v>
+        <v>4.703640735839851</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2442506527472381</v>
+        <v>0.8276361923847593</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1184.795048234979</v>
+        <v>116.589060714145</v>
       </c>
       <c r="C18" t="n">
-        <v>0.520198014432715</v>
+        <v>0.9454799807301836</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.92384443555466</v>
+        <v>-143.1389313928144</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9628656667129635</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8690.324896434027</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.06306248521746817</v>
+        <v>0.9439395806468924</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4616.210344529865</v>
+        <v>8751.169819745388</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2232276090086805</v>
+        <v>0.005707968929948037</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6448731043715</v>
+        <v>187.0190964763813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8314867570371377</v>
+        <v>0.8697382903927412</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-479.0408493746133</v>
+        <v>-383.0767254129623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7175959754467282</v>
+        <v>0.7723595915410544</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1300.133265009965</v>
+        <v>1302.819393166094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002618729595844446</v>
+        <v>0.002576685220418289</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95.92128583008429</v>
+        <v>-99.72726620728145</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8291326377689542</v>
+        <v>0.8225381865168346</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.8813156355152</v>
+        <v>559.2214746220933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2928478375754986</v>
+        <v>0.2733203423510155</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.9495425047186</v>
+        <v>331.6639648847795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4827581330340365</v>
+        <v>0.4613817336049707</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-94.10420335203118</v>
+        <v>-91.18560370361313</v>
       </c>
       <c r="C9" t="n">
-        <v>0.523399398458771</v>
+        <v>0.5365185263878008</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1628.783434811474</v>
+        <v>-1620.959411719839</v>
       </c>
       <c r="C10" t="n">
-        <v>1.310530007129827e-06</v>
+        <v>1.485061836070658e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-61.0148607284864</v>
+        <v>-59.63018674954142</v>
       </c>
       <c r="C11" t="n">
-        <v>9.928074001073888e-05</v>
+        <v>0.0001410393753195</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>581.1821145107856</v>
+        <v>502.1841368984371</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002103609359352657</v>
+        <v>0.0009302229800476914</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>537.3036017632961</v>
+        <v>499.7322944245885</v>
       </c>
       <c r="C13" t="n">
-        <v>4.021290920617656e-09</v>
+        <v>2.22531795431986e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03404486054990661</v>
+        <v>0.02742375724374134</v>
       </c>
       <c r="C14" t="n">
-        <v>0.691226778659159</v>
+        <v>0.7489304608516021</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002221177764872211</v>
+        <v>0.0002218889529390399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02369900691859916</v>
+        <v>0.02390425446256137</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-19.76726149393733</v>
+        <v>-26.33034151363258</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3479282301561433</v>
+        <v>0.2057273720078962</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.6745233966096</v>
+        <v>-0.3716400372932522</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3095733508074648</v>
+        <v>0.9862620756290588</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2435.310389660116</v>
+        <v>-1103.386608357473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1781639322313628</v>
+        <v>0.5112249857023348</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-766.0886086038317</v>
+        <v>-993.1501381763181</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7088623368222362</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9273.79217186075</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.04767509275875589</v>
+        <v>0.6279637282058537</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5630.068775267594</v>
+        <v>9708.8070372699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1428008527110651</v>
+        <v>0.002257743551191928</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-52.08093293694259</v>
+        <v>-115.7910962592538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9640200742810008</v>
+        <v>0.920109314603994</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-605.179138295666</v>
+        <v>-500.0978809379999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6537054571751861</v>
+        <v>0.7107119889942686</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1133.649105707281</v>
+        <v>1128.381252950388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009838739271961411</v>
+        <v>0.01021292020873957</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239.3562048301174</v>
+        <v>-248.8903530957777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5924763014345411</v>
+        <v>0.5779417563093279</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>671.291750528794</v>
+        <v>692.9108110197456</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1942079749171195</v>
+        <v>0.1802948517163949</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-253.7496444331979</v>
+        <v>-246.9220310302006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5749337864511265</v>
+        <v>0.5853953893056214</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-90.96026741271753</v>
+        <v>-88.64083544199711</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5400733406265461</v>
+        <v>0.5505927265654222</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1642.25723079824</v>
+        <v>-1644.589100190785</v>
       </c>
       <c r="C10" t="n">
-        <v>1.247686070660062e-06</v>
+        <v>1.216321880118561e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-69.10774747598111</v>
+        <v>-68.3100160627849</v>
       </c>
       <c r="C11" t="n">
-        <v>1.312878320124287e-05</v>
+        <v>1.649784719354718e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>436.452953476784</v>
+        <v>355.6436995071334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006131985570294613</v>
+        <v>0.02043937368963048</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.8764291944251</v>
+        <v>522.8118850353435</v>
       </c>
       <c r="C13" t="n">
-        <v>1.282961195823666e-09</v>
+        <v>6.736089196696919e-09</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01282395089409387</v>
+        <v>0.007280426873631491</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8827742836336731</v>
+        <v>0.9332724953650509</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002068678043746486</v>
+        <v>0.0002064539311885584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04397948283528075</v>
+        <v>0.04448440589477411</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.03813666853822</v>
+        <v>-16.55787813571613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6379027286319713</v>
+        <v>0.4316486823126681</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24.21220552981119</v>
+        <v>-0.9311830723898886</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3415255415076152</v>
+        <v>0.9657668147682059</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3050.933191399451</v>
+        <v>-1809.279104195648</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09681690936300867</v>
+        <v>0.2916981662285077</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-542.811876393238</v>
+        <v>-791.091059780849</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7909549025334278</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8977.371803387623</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05920360400415661</v>
+        <v>0.6987839110824718</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4074.82382170451</v>
+        <v>9770.310933659608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.280514517340542</v>
+        <v>0.001759461015690735</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>375.5120428957332</v>
+        <v>256.3173113213695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7485689450751132</v>
+        <v>0.8268493431636506</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1160.633341284959</v>
+        <v>-1023.544345252612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3665536214972754</v>
+        <v>0.4259102267716792</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1022.126511586723</v>
+        <v>1008.125006794192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01715284492761364</v>
+        <v>0.01883319584370745</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246.5857416024999</v>
+        <v>-258.5751065024388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.575579155603367</v>
+        <v>0.5574952883000601</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>771.8022296471045</v>
+        <v>794.8765827546322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1274517056996613</v>
+        <v>0.1167479052300814</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-158.5667738036998</v>
+        <v>-146.5603205743207</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7218368937657154</v>
+        <v>0.7423337791203251</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-147.869009532298</v>
+        <v>-146.9929382586647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3133518703032994</v>
+        <v>0.3166693479930432</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1643.745423869195</v>
+        <v>-1636.715659804823</v>
       </c>
       <c r="C10" t="n">
-        <v>8.795368090451088e-07</v>
+        <v>1.000354866079533e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-65.38866098894498</v>
+        <v>-64.52870804692766</v>
       </c>
       <c r="C11" t="n">
-        <v>3.036508790352308e-05</v>
+        <v>3.903745922540236e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>461.4404338808492</v>
+        <v>349.4114468838819</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003082058369529302</v>
+        <v>0.02007424702954179</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>574.5771284755999</v>
+        <v>520.9613393295032</v>
       </c>
       <c r="C13" t="n">
-        <v>2.579736010044361e-10</v>
+        <v>4.235084025646359e-09</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02989054483393282</v>
+        <v>0.0235212941913644</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7237650804651021</v>
+        <v>0.7810304134159117</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00021163510056901</v>
+        <v>0.000207765692984948</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02773720516794215</v>
+        <v>0.03084735018420729</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-30.9274738520122</v>
+        <v>-39.34352357819594</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1390482579281012</v>
+        <v>0.05721854940877898</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.13634910855878</v>
+        <v>-2.958414885230631</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2012452267968156</v>
+        <v>0.8904019408150774</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1909.540908934311</v>
+        <v>-156.2859534830804</v>
       </c>
       <c r="C18" t="n">
-        <v>0.290484882447721</v>
+        <v>0.92609283976093</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1478.320865445851</v>
+        <v>1091.245169081173</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4682626594727022</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>12586.83088491945</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.007491970578087038</v>
+        <v>0.5917723584914238</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6227.622414955316</v>
+        <v>10703.34334497797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1033420250159787</v>
+        <v>0.0007213345130088152</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.4385496721118</v>
+        <v>41.58699766453648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9300073122157484</v>
+        <v>0.971834443522112</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-382.4932967479962</v>
+        <v>-353.2091545264382</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7775213401443821</v>
+        <v>0.7942445049913501</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1067.032181484507</v>
+        <v>1060.499608487731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01541488892455949</v>
+        <v>0.0161048635591307</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.53495963219387</v>
+        <v>66.20113780488637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8667249238807009</v>
+        <v>0.8815631589298416</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>717.6865874179355</v>
+        <v>748.8854199734858</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1634286690715814</v>
+        <v>0.145921322007337</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>281.8057141992323</v>
+        <v>290.4609857936693</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5289688405269284</v>
+        <v>0.5165827053990747</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-133.1738065262049</v>
+        <v>-129.842673710341</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3652630749260476</v>
+        <v>0.377586657399763</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1667.410043674556</v>
+        <v>-1662.772076826079</v>
       </c>
       <c r="C10" t="n">
-        <v>7.47652907987557e-07</v>
+        <v>8.117904402065831e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-70.27385399954755</v>
+        <v>-69.23968668050712</v>
       </c>
       <c r="C11" t="n">
-        <v>7.926228378163511e-06</v>
+        <v>1.074389350070923e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>515.0253396340205</v>
+        <v>426.7581772162032</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001145502322291033</v>
+        <v>0.005171775984612609</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.7239170255369</v>
+        <v>516.6450975298853</v>
       </c>
       <c r="C13" t="n">
-        <v>1.236491081323668e-09</v>
+        <v>8.309048402014176e-09</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003388029098431777</v>
+        <v>-0.004317913348037258</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9691415643580197</v>
+        <v>0.9606626481062862</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001937353552934692</v>
+        <v>0.0001950415539772989</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05728733441787998</v>
+        <v>0.05574690352573724</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-29.73321626448892</v>
+        <v>-36.80062744287117</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1620882210721586</v>
+        <v>0.07979954175896874</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.80855867981328</v>
+        <v>-10.07664214144115</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4845774690626766</v>
+        <v>0.6421820262927396</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2033.179595399907</v>
+        <v>-649.8896370503406</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2659904823779756</v>
+        <v>0.7028395392677917</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>912.9063006822352</v>
+        <v>651.1485249645776</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6570307490918407</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9827.052167607533</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.03735512962446869</v>
+        <v>0.7511361222649808</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3396.000392858816</v>
+        <v>8632.320225368694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3747096886051914</v>
+        <v>0.006832451176023911</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.9150666550402</v>
+        <v>252.8473429232644</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7644129909556878</v>
+        <v>0.8256534893664</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-132.8855175344169</v>
+        <v>-67.95150030913567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9174232307211878</v>
+        <v>0.9577415456805283</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1521.434741679133</v>
+        <v>1510.505877101646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004902573056761266</v>
+        <v>0.0005430485613399295</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-270.6723978921511</v>
+        <v>-271.2526735550483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5426302504346213</v>
+        <v>0.5420735129202412</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.0057854179701</v>
+        <v>555.7000390958182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3020974596467637</v>
+        <v>0.2786204193473465</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-81.88844899926494</v>
+        <v>-70.10818449087631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8551808574385217</v>
+        <v>0.8759178441451195</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-237.5645718102636</v>
+        <v>-228.4488193879441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1095090602834076</v>
+        <v>0.123971319861603</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1752.187968258996</v>
+        <v>-1745.404557972164</v>
       </c>
       <c r="C10" t="n">
-        <v>1.939517586333166e-07</v>
+        <v>2.204512074290137e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-71.44830089713605</v>
+        <v>-69.24042079037694</v>
       </c>
       <c r="C11" t="n">
-        <v>5.469279958594823e-06</v>
+        <v>1.03548405952829e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>517.2667912669658</v>
+        <v>413.1347591859451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00100387779126534</v>
+        <v>0.006422036430735328</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.6641702913854</v>
+        <v>509.1145036074305</v>
       </c>
       <c r="C13" t="n">
-        <v>1.820221220319456e-09</v>
+        <v>1.965232287988443e-08</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03445314531887161</v>
+        <v>0.0277740761972934</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6860088132519641</v>
+        <v>0.744560093119673</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001258599978048618</v>
+        <v>0.0001253327103065678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2071400624804141</v>
+        <v>0.2093951782313385</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.168552090992453</v>
+        <v>-5.240150594966973</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8816974998903879</v>
+        <v>0.8032694331935271</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.93576281999182</v>
+        <v>6.836680893224445</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1178977179837463</v>
+        <v>0.7534920230983817</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2447.139472263284</v>
+        <v>-738.6580968594246</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1829466010856191</v>
+        <v>0.6646691847383532</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1339.048560701979</v>
+        <v>-1659.000307947287</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5136718508553995</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11636.86112859376</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01336352205461581</v>
+        <v>0.4178417976619287</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ37847484" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ38128476" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ38390602" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ38651166" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ38909914" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ39173648" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ39426374" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ39773159" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ40026733" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ43902829" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ44844434" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ45801577" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ46760238" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ47727093" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ48685962" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ49644798" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ50588595" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ51548099" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8471.484023576697</v>
+        <v>9281.345910866083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007789454624852856</v>
+        <v>0.007389675570194704</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1202.91681436473</v>
+        <v>-1253.859939905559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3237179624293176</v>
+        <v>0.328467465764625</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-159.1548727820026</v>
+        <v>-1769.510232421669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9039989314753765</v>
+        <v>0.2697969944938929</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1343.50409074776</v>
+        <v>2007.063368179705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001904795805325258</v>
+        <v>2.349160199902842e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-423.4640039928167</v>
+        <v>-188.8801774027065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.340237286704573</v>
+        <v>0.698156725702469</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>428.4818319971113</v>
+        <v>1296.267832577875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4024079324924151</v>
+        <v>0.02032878048644921</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105.4050962795262</v>
+        <v>19.04503581191335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8153166625886411</v>
+        <v>0.9689505812092155</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-51.99473862204786</v>
+        <v>22.16398747877447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7270516013796073</v>
+        <v>0.8914114433950276</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1792.415801216938</v>
+        <v>-2295.830898511967</v>
       </c>
       <c r="C10" t="n">
-        <v>1.027174142114593e-07</v>
+        <v>4.897075784049615e-10</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-68.6323411082019</v>
+        <v>-88.19444374189732</v>
       </c>
       <c r="C11" t="n">
-        <v>1.069133753815934e-05</v>
+        <v>3.600019059358501e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>332.8034421178901</v>
+        <v>556.9879017386602</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02741358790951412</v>
+        <v>0.0006159004650841502</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>518.7276375599293</v>
+        <v>580.0363820976634</v>
       </c>
       <c r="C13" t="n">
-        <v>8.499176814484142e-09</v>
+        <v>3.233307215547228e-09</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04390360215938952</v>
+        <v>0.05104766684741528</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6018682252884338</v>
+        <v>0.5453017599622714</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001544284310010299</v>
+        <v>0.0002317923897049372</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1134588463734251</v>
+        <v>0.03235931876365301</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.57114255722337</v>
+        <v>2.99979652726763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2212344545137763</v>
+        <v>0.8948064932731218</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.238285150004652</v>
+        <v>-0.6625526162074618</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7035076161521496</v>
+        <v>0.9775990093241107</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1121.221914560181</v>
+        <v>262.0130666131637</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5063703655031857</v>
+        <v>0.8893266149824949</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>175.2752195898204</v>
+        <v>-760.8866945129801</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9317445835755375</v>
+        <v>0.7332105646127982</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9388.195090780291</v>
+        <v>10923.37565712921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002701674475805872</v>
+        <v>0.001735643424740241</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-451.400434536899</v>
+        <v>-715.6594068790437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7067964718492141</v>
+        <v>0.589069264038909</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-888.0985406152272</v>
+        <v>-620.6184720734497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4807566086778076</v>
+        <v>0.6923261346295382</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.012275283976</v>
+        <v>2036.021468458613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002859400648191788</v>
+        <v>3.352974378171278e-05</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126.0076330132374</v>
+        <v>-82.85880406578039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777457866470011</v>
+        <v>0.8682212284809258</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>556.2778009023741</v>
+        <v>984.8548385495332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2795875388886331</v>
+        <v>0.08272560438291038</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-119.2040214654118</v>
+        <v>387.6643984290527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7915469735947752</v>
+        <v>0.4417710297295236</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-181.3939428661145</v>
+        <v>-19.6270955869138</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221080816497548</v>
+        <v>0.9048190073538187</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1565.124921901055</v>
+        <v>-2635.196822067084</v>
       </c>
       <c r="C10" t="n">
-        <v>3.651503797419026e-06</v>
+        <v>3.303844320631651e-12</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-67.79046610848874</v>
+        <v>-106.3895407742634</v>
       </c>
       <c r="C11" t="n">
-        <v>1.578533431066389e-05</v>
+        <v>1.830025739642697e-09</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>371.4342648783377</v>
+        <v>517.5834201452103</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01491517339252044</v>
+        <v>0.00185267143807931</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.1449361066989</v>
+        <v>522.6983158460281</v>
       </c>
       <c r="C13" t="n">
-        <v>3.195449424177433e-09</v>
+        <v>3.338215472723099e-07</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04536509919653772</v>
+        <v>0.03292417496619676</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5947825596164378</v>
+        <v>0.7008952609933019</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001478251306894226</v>
+        <v>0.0001556493540875682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1336174544394857</v>
+        <v>0.154857058063979</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-23.13032235971275</v>
+        <v>3.80600272928428</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2697829529106897</v>
+        <v>0.8701602848039449</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1829825735360178</v>
+        <v>4.510224953818291</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9931736160825645</v>
+        <v>0.8501656847865211</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1139.687690707527</v>
+        <v>-100.1059214517488</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4966918806460892</v>
+        <v>0.9582720089460228</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-162.0825847955971</v>
+        <v>-907.2891909943557</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9371716695104371</v>
+        <v>0.6909817301640344</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8014.076755941342</v>
+        <v>13910.74982340743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01116143965712045</v>
+        <v>5.839250388920327e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-563.8481305871351</v>
+        <v>-913.0117811896861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6174072916057645</v>
+        <v>0.4824489989576066</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-650.8990563248137</v>
+        <v>-1283.332032987789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6304849457778881</v>
+        <v>0.3889351169067864</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1043.496637496612</v>
+        <v>1767.572749481698</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01647454936231699</v>
+        <v>0.0002623884851131384</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.77899430493127</v>
+        <v>70.11529872863412</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8571927588910685</v>
+        <v>0.8852989147288675</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>677.344764391248</v>
+        <v>1133.626816756071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1854443513866291</v>
+        <v>0.04367826098424499</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132.3491331418018</v>
+        <v>-295.0739426227487</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7680359839300567</v>
+        <v>0.5496146115127423</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-106.6847499392817</v>
+        <v>-46.32550054897706</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4687200899913418</v>
+        <v>0.7755230676476946</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1612.752160511142</v>
+        <v>-2201.258268065975</v>
       </c>
       <c r="C10" t="n">
-        <v>1.669533465519624e-06</v>
+        <v>2.994937433276726e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-67.32304504868026</v>
+        <v>-98.12937794204538</v>
       </c>
       <c r="C11" t="n">
-        <v>1.789329378116316e-05</v>
+        <v>1.807939822141075e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>459.6000328632737</v>
+        <v>671.9780167180537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002393627830145819</v>
+        <v>4.367644089549528e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.3509917669783</v>
+        <v>440.4583959894056</v>
       </c>
       <c r="C13" t="n">
-        <v>9.099364163634893e-10</v>
+        <v>7.780289087729278e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04531736300271553</v>
+        <v>-0.0201535380784268</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5945937378289288</v>
+        <v>0.812595999301465</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001183842392713263</v>
+        <v>0.0001799451184524666</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2271738556548191</v>
+        <v>0.0990436583242089</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-9.540648950135813</v>
+        <v>-30.41882486731209</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6447417735473917</v>
+        <v>0.1860051370612956</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.601363622802335</v>
+        <v>-19.24942988949362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9039219068053328</v>
+        <v>0.414426548328821</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-129.2872323760942</v>
+        <v>668.0279725904281</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9390024977104197</v>
+        <v>0.7230830913581672</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-316.866903504152</v>
+        <v>1327.761025766514</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8762734446991882</v>
+        <v>0.5543140226362118</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8192.39428238071</v>
+        <v>11256.25871959224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009495924628474582</v>
+        <v>0.001191472747234762</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-72.37535507570141</v>
+        <v>-1508.348578672564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9501452931032324</v>
+        <v>0.2489131443746668</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-820.0089836496758</v>
+        <v>-401.8069601030239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.530825412281638</v>
+        <v>0.7886032664081194</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1118.668414312749</v>
+        <v>2336.326816109951</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009376123052208415</v>
+        <v>9.045783159395035e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216.6081757430255</v>
+        <v>29.31075751279823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6212429240950313</v>
+        <v>0.9518712919236221</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>769.6073206336387</v>
+        <v>1568.796616495029</v>
       </c>
       <c r="C7" t="n">
-        <v>0.131556930117415</v>
+        <v>0.005048855422029192</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.37460614092288</v>
+        <v>380.4217165581155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9297525899792032</v>
+        <v>0.4386115744657836</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-104.6030547941709</v>
+        <v>-68.65098413446289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4751171598847709</v>
+        <v>0.6698081037909973</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1587.191947043571</v>
+        <v>-2681.674585350953</v>
       </c>
       <c r="C10" t="n">
-        <v>1.926146621029515e-06</v>
+        <v>4.159089625982514e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-63.18524486528561</v>
+        <v>-93.61865895176031</v>
       </c>
       <c r="C11" t="n">
-        <v>5.706743621100948e-05</v>
+        <v>8.438772948311437e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>347.0568621603508</v>
+        <v>546.0856370576067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02074430133079653</v>
+        <v>0.0007089073528357973</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.2717069552249</v>
+        <v>556.5030052467459</v>
       </c>
       <c r="C13" t="n">
-        <v>1.46983807668839e-10</v>
+        <v>2.714860035168752e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.121080034424218</v>
+        <v>0.05146477327769135</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1605366277659063</v>
+        <v>0.5391713715766298</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.004689215819033e-05</v>
+        <v>0.0002017259509093859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4242954090772512</v>
+        <v>0.05651151602137453</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-27.48722775854593</v>
+        <v>-18.34133685348185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1832986539178213</v>
+        <v>0.4243531561873869</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.703640735839851</v>
+        <v>-7.693734234863003</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8276361923847593</v>
+        <v>0.7435940962165396</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>116.589060714145</v>
+        <v>1123.99292189242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9454799807301836</v>
+        <v>0.5415127651670644</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-143.1389313928144</v>
+        <v>-469.2749148696665</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9439395806468924</v>
+        <v>0.8352171489225581</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8751.169819745388</v>
+        <v>10297.55661939185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005707968929948037</v>
+        <v>0.002915069573310461</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187.0190964763813</v>
+        <v>-529.6139369899076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8697382903927412</v>
+        <v>0.6780435706121464</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-383.0767254129623</v>
+        <v>-1182.366483814801</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7723595915410544</v>
+        <v>0.4244567881181524</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.819393166094</v>
+        <v>1778.317326795238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002576685220418289</v>
+        <v>0.0002243771183930802</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99.72726620728145</v>
+        <v>-156.7899776346856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8225381865168346</v>
+        <v>0.7466393012127863</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>559.2214746220933</v>
+        <v>967.6139504091093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2733203423510155</v>
+        <v>0.08383333362040021</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>331.6639648847795</v>
+        <v>193.7873695463692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4613817336049707</v>
+        <v>0.6959465223564585</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-91.18560370361313</v>
+        <v>34.89726644120029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5365185263878008</v>
+        <v>0.8291842268841205</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1620.959411719839</v>
+        <v>-2477.388253709346</v>
       </c>
       <c r="C10" t="n">
-        <v>1.485061836070658e-06</v>
+        <v>2.794795905841712e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-59.63018674954142</v>
+        <v>-96.8697134912376</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001410393753195</v>
+        <v>2.930013819252285e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>502.1841368984371</v>
+        <v>464.9764425994479</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009302229800476914</v>
+        <v>0.004446461077466153</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>499.7322944245885</v>
+        <v>536.9947358382509</v>
       </c>
       <c r="C13" t="n">
-        <v>2.22531795431986e-08</v>
+        <v>5.323685427845607e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02742375724374134</v>
+        <v>0.04914057939857944</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7489304608516021</v>
+        <v>0.5605896557407988</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002218889529390399</v>
+        <v>0.0001644987852663806</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02390425446256137</v>
+        <v>0.1273016551307717</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-26.33034151363258</v>
+        <v>-12.00902886763861</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2057273720078962</v>
+        <v>0.5964501822223838</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3716400372932522</v>
+        <v>10.18115388632763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9862620756290588</v>
+        <v>0.6669031192526322</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1103.386608357473</v>
+        <v>95.01975204637097</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5112249857023348</v>
+        <v>0.9593935049086038</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-993.1501381763181</v>
+        <v>-702.6695883584272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6279637282058537</v>
+        <v>0.7520135264455681</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9708.8070372699</v>
+        <v>12379.92370335981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002257743551191928</v>
+        <v>0.0004304007530613235</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-115.7910962592538</v>
+        <v>-325.0464316156533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.920109314603994</v>
+        <v>0.8017791009860277</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-500.0978809379999</v>
+        <v>-1039.160531366198</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7107119889942686</v>
+        <v>0.4803523511261473</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1128.381252950388</v>
+        <v>1691.357350062345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01021292020873957</v>
+        <v>0.0004558734518833749</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248.8903530957777</v>
+        <v>-213.369534913516</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5779417563093279</v>
+        <v>0.6645076291511678</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>692.9108110197456</v>
+        <v>897.5024104212839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1802948517163949</v>
+        <v>0.1115038058062277</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-246.9220310302006</v>
+        <v>183.502433844311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5853953893056214</v>
+        <v>0.7099764849291612</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-88.64083544199711</v>
+        <v>-76.56348197074945</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5505927265654222</v>
+        <v>0.6404601156715968</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1644.589100190785</v>
+        <v>-2644.210511729414</v>
       </c>
       <c r="C10" t="n">
-        <v>1.216321880118561e-06</v>
+        <v>1.333741768859866e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-68.3100160627849</v>
+        <v>-104.8861902592586</v>
       </c>
       <c r="C11" t="n">
-        <v>1.649784719354718e-05</v>
+        <v>2.466808221503595e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>355.6436995071334</v>
+        <v>418.1092858709798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02043937368963048</v>
+        <v>0.01106260741561337</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>522.8118850353435</v>
+        <v>563.1032079209044</v>
       </c>
       <c r="C13" t="n">
-        <v>6.736089196696919e-09</v>
+        <v>1.089150695043761e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.007280426873631491</v>
+        <v>0.05020053551626808</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9332724953650509</v>
+        <v>0.5567071954225751</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002064539311885584</v>
+        <v>0.0002149473400869889</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04448440589477411</v>
+        <v>0.04842934706363579</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.55787813571613</v>
+        <v>-7.422496859696286</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4316486823126681</v>
+        <v>0.7453244739913681</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.9311830723898886</v>
+        <v>-0.9477279792639979</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9657668147682059</v>
+        <v>0.9684455922520084</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1809.279104195648</v>
+        <v>-1208.262789784741</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2916981662285077</v>
+        <v>0.5183867611683816</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-791.091059780849</v>
+        <v>-1476.422629690679</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6987839110824718</v>
+        <v>0.5098516906232781</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9770.310933659608</v>
+        <v>10992.07736081373</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001759461015690735</v>
+        <v>0.001538679347334203</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.3173113213695</v>
+        <v>-217.7402051479258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8268493431636506</v>
+        <v>0.867779052303807</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1023.544345252612</v>
+        <v>-680.5917680618384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4259102267716792</v>
+        <v>0.655035003528704</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1008.125006794192</v>
+        <v>1990.269588490194</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01883319584370745</v>
+        <v>3.594974858818956e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258.5751065024388</v>
+        <v>-146.4333635427373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5574952883000601</v>
+        <v>0.7650902758531297</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>794.8765827546322</v>
+        <v>1210.545992195093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1167479052300814</v>
+        <v>0.0320378097626076</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-146.5603205743207</v>
+        <v>168.0210771698064</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7423337791203251</v>
+        <v>0.7352843214973344</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-146.9929382586647</v>
+        <v>11.86516578941144</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3166693479930432</v>
+        <v>0.9424165218576364</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1636.715659804823</v>
+        <v>-2739.384919891701</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000354866079533e-06</v>
+        <v>2.240391328079099e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-64.52870804692766</v>
+        <v>-115.1163218917662</v>
       </c>
       <c r="C11" t="n">
-        <v>3.903745922540236e-05</v>
+        <v>5.762408053037797e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>349.4114468838819</v>
+        <v>524.7126288168852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02007424702954179</v>
+        <v>0.001456737263657546</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.9613393295032</v>
+        <v>497.9166066255819</v>
       </c>
       <c r="C13" t="n">
-        <v>4.235084025646359e-09</v>
+        <v>5.131113315545859e-07</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0235212941913644</v>
+        <v>0.08616287818323218</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7810304134159117</v>
+        <v>0.3094864017961408</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000207765692984948</v>
+        <v>0.0001631738219648685</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03084735018420729</v>
+        <v>0.1311957259293143</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-39.34352357819594</v>
+        <v>-4.892416492301527</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05721854940877898</v>
+        <v>0.8309771067372461</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.958414885230631</v>
+        <v>11.4634458484241</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8904019408150774</v>
+        <v>0.6292786729406681</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-156.2859534830804</v>
+        <v>-736.2292269311511</v>
       </c>
       <c r="C18" t="n">
-        <v>0.92609283976093</v>
+        <v>0.6970312402223215</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.245169081173</v>
+        <v>-1638.479830125646</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5917723584914238</v>
+        <v>0.4648199769419999</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10703.34334497797</v>
+        <v>12029.48724615359</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007213345130088152</v>
+        <v>0.0005038919658757957</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.58699766453648</v>
+        <v>-830.9292956537917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.971834443522112</v>
+        <v>0.5254959728311621</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-353.2091545264382</v>
+        <v>-1868.672154004964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7942445049913501</v>
+        <v>0.2146132346316265</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1060.499608487731</v>
+        <v>2094.896967255207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0161048635591307</v>
+        <v>1.325181127555078e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.20113780488637</v>
+        <v>-170.4927997414588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8815631589298416</v>
+        <v>0.7268766852214674</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>748.8854199734858</v>
+        <v>618.1968220910471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.145921322007337</v>
+        <v>0.2690953655777467</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290.4609857936693</v>
+        <v>-52.25818143839206</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5165827053990747</v>
+        <v>0.9160492860224415</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-129.842673710341</v>
+        <v>39.14393672829332</v>
       </c>
       <c r="C9" t="n">
-        <v>0.377586657399763</v>
+        <v>0.8091030621187469</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1662.772076826079</v>
+        <v>-2426.005528955623</v>
       </c>
       <c r="C10" t="n">
-        <v>8.117904402065831e-07</v>
+        <v>6.578983637066847e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-69.23968668050712</v>
+        <v>-89.05443786658201</v>
       </c>
       <c r="C11" t="n">
-        <v>1.074389350070923e-05</v>
+        <v>3.50631500286723e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>426.7581772162032</v>
+        <v>552.3522296320036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005171775984612609</v>
+        <v>0.0007757808791103174</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.6450975298853</v>
+        <v>529.338030389124</v>
       </c>
       <c r="C13" t="n">
-        <v>8.309048402014176e-09</v>
+        <v>7.355319245509221e-08</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.004317913348037258</v>
+        <v>0.07482340065758376</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9606626481062862</v>
+        <v>0.3808252917056425</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001950415539772989</v>
+        <v>0.000187818645972847</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05574690352573724</v>
+        <v>0.08543851730355691</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-36.80062744287117</v>
+        <v>-6.16205862061412</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07979954175896874</v>
+        <v>0.7872196358312318</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.07664214144115</v>
+        <v>-12.23825827071697</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6421820262927396</v>
+        <v>0.6062412605675001</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-649.8896370503406</v>
+        <v>-1318.358894199667</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7028395392677917</v>
+        <v>0.4840489633763297</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>651.1485249645776</v>
+        <v>-1846.697624597308</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7511361222649808</v>
+        <v>0.4110026919529023</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8632.320225368694</v>
+        <v>11617.67926534924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006832451176023911</v>
+        <v>0.0007990088379537523</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252.8473429232644</v>
+        <v>-306.498369136493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8256534893664</v>
+        <v>0.8280058093277566</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-67.95150030913567</v>
+        <v>-881.2238456213508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9577415456805283</v>
+        <v>0.5505391916120983</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1510.505877101646</v>
+        <v>1923.457802318572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005430485613399295</v>
+        <v>6.678677719921049e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271.2526735550483</v>
+        <v>-30.10974543918906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5420735129202412</v>
+        <v>0.9511010081536591</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.7000390958182</v>
+        <v>1330.953241245713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2786204193473465</v>
+        <v>0.01770034963958106</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-70.10818449087631</v>
+        <v>104.8213048417553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8759178441451195</v>
+        <v>0.833420336319964</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-228.4488193879441</v>
+        <v>34.76460338663901</v>
       </c>
       <c r="C9" t="n">
-        <v>0.123971319861603</v>
+        <v>0.8314251414406285</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1745.404557972164</v>
+        <v>-2300.861986846438</v>
       </c>
       <c r="C10" t="n">
-        <v>2.204512074290137e-07</v>
+        <v>7.005285527635887e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-69.24042079037694</v>
+        <v>-101.9938535733459</v>
       </c>
       <c r="C11" t="n">
-        <v>1.03548405952829e-05</v>
+        <v>5.707683956393008e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>413.1347591859451</v>
+        <v>375.7736877872544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006422036430735328</v>
+        <v>0.02265211747910331</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.1145036074305</v>
+        <v>531.3193816698936</v>
       </c>
       <c r="C13" t="n">
-        <v>1.965232287988443e-08</v>
+        <v>9.00875520923941e-08</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0277740761972934</v>
+        <v>0.08283479813350744</v>
       </c>
       <c r="C14" t="n">
-        <v>0.744560093119673</v>
+        <v>0.3310011758841856</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001253327103065678</v>
+        <v>0.0001905465622247318</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2093951782313385</v>
+        <v>0.08239043859937532</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5.240150594966973</v>
+        <v>-14.58482529092135</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8032694331935271</v>
+        <v>0.52464347977047</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.836680893224445</v>
+        <v>3.642166833065283</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7534920230983817</v>
+        <v>0.8776425075820778</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-738.6580968594246</v>
+        <v>-800.8445159971285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6646691847383532</v>
+        <v>0.6728918168387337</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1659.000307947287</v>
+        <v>-1787.987161034297</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4178417976619287</v>
+        <v>0.4296911970912888</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ43902829" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ44844434" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ45801577" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46760238" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ47727093" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ48685962" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ49644798" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50588595" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ51548099" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ44951355" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ46124965" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ46978517" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ47333171" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ47671051" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ48020392" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ48346527" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ48695839" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ49070491" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ44951355" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46124965" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ46978517" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ47333171" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ47671051" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ48020392" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ48346527" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ48695839" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ49070491" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01138204" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01537351" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01866426" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ02169297" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ02486185" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02801492" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ03103014" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ03419073" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03738028" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9281.345910866083</v>
+        <v>9471.827650863632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007389675570194704</v>
+        <v>0.002645594828270439</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1253.859939905559</v>
+        <v>-1255.765357225305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.328467465764625</v>
+        <v>0.3276416636503264</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1769.510232421669</v>
+        <v>-1769.156772526004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2697969944938929</v>
+        <v>0.2698317099690998</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2007.063368179705</v>
+        <v>2010.079307101133</v>
       </c>
       <c r="C5" t="n">
-        <v>2.349160199902842e-05</v>
+        <v>2.229261881110751e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188.8801774027065</v>
+        <v>-187.5726055824297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.698156725702469</v>
+        <v>0.7000498869657898</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1296.267832577875</v>
+        <v>1296.468295965356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02032878048644921</v>
+        <v>0.02029316502579697</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.04503581191335</v>
+        <v>19.96185162653376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9689505812092155</v>
+        <v>0.9674493315281949</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.16398747877447</v>
+        <v>21.26095088635898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8914114433950276</v>
+        <v>0.895705099048924</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2295.830898511967</v>
+        <v>-2295.341429892558</v>
       </c>
       <c r="C10" t="n">
-        <v>4.897075784049615e-10</v>
+        <v>4.904066156174181e-10</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-88.19444374189732</v>
+        <v>-88.20675825972324</v>
       </c>
       <c r="C11" t="n">
-        <v>3.600019059358501e-07</v>
+        <v>3.573116876938855e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>556.9879017386602</v>
+        <v>555.5186846688964</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006159004650841502</v>
+        <v>0.0006172398764986397</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0363820976634</v>
+        <v>574.9643878339473</v>
       </c>
       <c r="C13" t="n">
-        <v>3.233307215547228e-09</v>
+        <v>1.800249997170276e-10</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05104766684741528</v>
+        <v>0.05089634992970609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5453017599622714</v>
+        <v>0.5464063303667099</v>
       </c>
     </row>
     <row r="15">
@@ -635,62 +635,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002317923897049372</v>
+        <v>0.0002351202549426318</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03235931876365301</v>
+        <v>0.02561432869089527</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.99979652726763</v>
+        <v>-1.471766015240815</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8948064932731218</v>
+        <v>0.9484987719071374</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6625526162074618</v>
+        <v>260.8170284736325</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9775990093241107</v>
+        <v>0.8898135428706577</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>262.0130666131637</v>
+        <v>-645.1807436750812</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8893266149824949</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-760.8866945129801</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7332105646127982</v>
+        <v>0.7533610887478496</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10923.37565712921</v>
+        <v>11153.35366871347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001735643424740241</v>
+        <v>0.0004733485720456794</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-715.6594068790437</v>
+        <v>-719.6348476665378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.589069264038909</v>
+        <v>0.586892180150995</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-620.6184720734497</v>
+        <v>-625.1143978214742</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6923261346295382</v>
+        <v>0.6901306201489527</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2036.021468458613</v>
+        <v>2040.602811946429</v>
       </c>
       <c r="C5" t="n">
-        <v>3.352974378171278e-05</v>
+        <v>3.117733653554012e-05</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82.85880406578039</v>
+        <v>-80.59496309544943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8682212284809258</v>
+        <v>0.8717252835509861</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>984.8548385495332</v>
+        <v>985.9148124603678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08272560438291038</v>
+        <v>0.08233731880848039</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>387.6643984290527</v>
+        <v>388.6256945679735</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4417710297295236</v>
+        <v>0.4405516934984204</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-19.6270955869138</v>
+        <v>-21.1832423501961</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9048190073538187</v>
+        <v>0.8971278452592013</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2635.196822067084</v>
+        <v>-2633.9645347219</v>
       </c>
       <c r="C10" t="n">
-        <v>3.303844320631651e-12</v>
+        <v>3.327064959752512e-12</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-106.3895407742634</v>
+        <v>-106.42938732764</v>
       </c>
       <c r="C11" t="n">
-        <v>1.830025739642697e-09</v>
+        <v>1.790228019136055e-09</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>517.5834201452103</v>
+        <v>515.9395741032852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00185267143807931</v>
+        <v>0.001876634774872738</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>522.6983158460281</v>
+        <v>516.3537413319748</v>
       </c>
       <c r="C13" t="n">
-        <v>3.338215472723099e-07</v>
+        <v>5.076448194840101e-08</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03292417496619676</v>
+        <v>0.03268480858298434</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7008952609933019</v>
+        <v>0.7028894539920884</v>
       </c>
     </row>
     <row r="15">
@@ -905,62 +892,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001556493540875682</v>
+        <v>0.0001601288620813783</v>
       </c>
       <c r="C15" t="n">
-        <v>0.154857058063979</v>
+        <v>0.1305621624573785</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.80600272928428</v>
+        <v>3.578110095882903</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8701602848039449</v>
+        <v>0.8773318829728703</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.510224953818291</v>
+        <v>-103.8930883275127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8501656847865211</v>
+        <v>0.9566863282896614</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-100.1059214517488</v>
+        <v>-757.4020467793692</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9582720089460228</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-907.2891909943557</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6909817301640344</v>
+        <v>0.7170287230994962</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13910.74982340743</v>
+        <v>12011.93640997581</v>
       </c>
       <c r="C2" t="n">
-        <v>5.839250388920327e-05</v>
+        <v>0.0001361611313127018</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-913.0117811896861</v>
+        <v>-875.0398013809913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4824489989576066</v>
+        <v>0.5007824688958713</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1283.332032987789</v>
+        <v>-1265.539230009484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3889351169067864</v>
+        <v>0.3955700880203299</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.572749481698</v>
+        <v>1731.517731846032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002623884851131384</v>
+        <v>0.0003424597682863055</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.11529872863412</v>
+        <v>59.48713160378639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8852989147288675</v>
+        <v>0.9025870826266723</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.626816756071</v>
+        <v>1142.471512001064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04367826098424499</v>
+        <v>0.04206825311915333</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-295.0739426227487</v>
+        <v>-290.635538382668</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5496146115127423</v>
+        <v>0.5556632435815317</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-46.32550054897706</v>
+        <v>-34.9516172489032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7755230676476946</v>
+        <v>0.829433940715833</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2201.258268065975</v>
+        <v>-2211.355289139461</v>
       </c>
       <c r="C10" t="n">
-        <v>2.994937433276726e-09</v>
+        <v>2.527680171053689e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-98.12937794204538</v>
+        <v>-97.83279179048716</v>
       </c>
       <c r="C11" t="n">
-        <v>1.807939822141075e-08</v>
+        <v>1.99508731702328e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>671.9780167180537</v>
+        <v>687.6945823014318</v>
       </c>
       <c r="C12" t="n">
-        <v>4.367644089549528e-05</v>
+        <v>2.75212153178754e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>440.4583959894056</v>
+        <v>490.6077106014532</v>
       </c>
       <c r="C13" t="n">
-        <v>7.780289087729278e-06</v>
+        <v>6.911966611098193e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0201535380784268</v>
+        <v>-0.01814069205508032</v>
       </c>
       <c r="C14" t="n">
-        <v>0.812595999301465</v>
+        <v>0.8310041412744633</v>
       </c>
     </row>
     <row r="15">
@@ -1175,62 +1149,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001799451184524666</v>
+        <v>0.0001467533121574466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0990436583242089</v>
+        <v>0.1668880558568876</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-30.41882486731209</v>
+        <v>-11.39243008021436</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1860051370612956</v>
+        <v>0.6177322120574986</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-19.24942988949362</v>
+        <v>681.3326412212064</v>
       </c>
       <c r="C17" t="n">
-        <v>0.414426548328821</v>
+        <v>0.7178237147768498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.0279725904281</v>
+        <v>128.4438683119686</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7230830913581672</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1327.761025766514</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5543140226362118</v>
+        <v>0.9501471808094153</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11256.25871959224</v>
+        <v>10072.82285239005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001191472747234762</v>
+        <v>0.001340828059843106</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1508.348578672564</v>
+        <v>-1503.464699075062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2489131443746668</v>
+        <v>0.2504214012910248</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-401.8069601030239</v>
+        <v>-393.6839113819547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7886032664081194</v>
+        <v>0.7927644251761337</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2336.326816109951</v>
+        <v>2316.52806361471</v>
       </c>
       <c r="C5" t="n">
-        <v>9.045783159395035e-07</v>
+        <v>1.078797524223866e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.31075751279823</v>
+        <v>18.12352195332377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9518712919236221</v>
+        <v>0.9702159818852649</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1568.796616495029</v>
+        <v>1566.112878871587</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005048855422029192</v>
+        <v>0.005121534243075076</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.4217165581155</v>
+        <v>373.9291065303815</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4386115744657836</v>
+        <v>0.4463815025949824</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-68.65098413446289</v>
+        <v>-61.81452414431357</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6698081037909973</v>
+        <v>0.7006002870433823</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2681.674585350953</v>
+        <v>-2686.179854913584</v>
       </c>
       <c r="C10" t="n">
-        <v>4.159089625982514e-13</v>
+        <v>3.77021713951799e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-93.61865895176031</v>
+        <v>-93.27768029565237</v>
       </c>
       <c r="C11" t="n">
-        <v>8.438772948311437e-08</v>
+        <v>9.300486366234579e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>546.0856370576067</v>
+        <v>556.031127614674</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007089073528357973</v>
+        <v>0.0005438697250242521</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.5030052467459</v>
+        <v>587.4755044344111</v>
       </c>
       <c r="C13" t="n">
-        <v>2.714860035168752e-08</v>
+        <v>1.971878733576974e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05146477327769135</v>
+        <v>0.05371206620153111</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5391713715766298</v>
+        <v>0.5213470649297051</v>
       </c>
     </row>
     <row r="15">
@@ -1445,62 +1406,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002017259509093859</v>
+        <v>0.0001814775940311682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05651151602137453</v>
+        <v>0.07718038751729728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.34133685348185</v>
+        <v>-2.711664253426465</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4243531561873869</v>
+        <v>0.9048231769625381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.693734234863003</v>
+        <v>1127.338234221675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7435940962165396</v>
+        <v>0.5402903668466926</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1123.99292189242</v>
+        <v>-1198.528453553941</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5415127651670644</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-469.2749148696665</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8352171489225581</v>
+        <v>0.5612638171849424</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10297.55661939185</v>
+        <v>9539.082753858907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002915069573310461</v>
+        <v>0.002447803851308408</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-529.6139369899076</v>
+        <v>-526.82301959477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6780435706121464</v>
+        <v>0.6796151728534239</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1182.366483814801</v>
+        <v>-1177.308393558712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4244567881181524</v>
+        <v>0.4263887727304414</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1778.317326795238</v>
+        <v>1760.202610696977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002243771183930802</v>
+        <v>0.0002503394842147629</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-156.7899776346856</v>
+        <v>-163.5101094447417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7466393012127863</v>
+        <v>0.7360662646315917</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>967.6139504091093</v>
+        <v>969.3616769477972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08383333362040021</v>
+        <v>0.08324225344625563</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>193.7873695463692</v>
+        <v>190.028762221859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6959465223564585</v>
+        <v>0.7015024969601152</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.89726644120029</v>
+        <v>39.44814537624502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8291842268841205</v>
+        <v>0.8070368372491852</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2477.388253709346</v>
+        <v>-2479.105868009149</v>
       </c>
       <c r="C10" t="n">
-        <v>2.794795905841712e-11</v>
+        <v>2.692920577904862e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-96.8697134912376</v>
+        <v>-96.72127241652699</v>
       </c>
       <c r="C11" t="n">
-        <v>2.930013819252285e-08</v>
+        <v>3.053733335055388e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>464.9764425994479</v>
+        <v>470.6592549985928</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004446461077466153</v>
+        <v>0.003903703086041094</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.9947358382509</v>
+        <v>556.8605434802525</v>
       </c>
       <c r="C13" t="n">
-        <v>5.323685427845607e-08</v>
+        <v>1.069742720004016e-09</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04914057939857944</v>
+        <v>0.0500822251735524</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5605896557407988</v>
+        <v>0.5529780951292103</v>
       </c>
     </row>
     <row r="15">
@@ -1715,62 +1663,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001644987852663806</v>
+        <v>0.0001507019350978041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1273016551307717</v>
+        <v>0.1499451397193682</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.00902886763861</v>
+        <v>13.34059061003213</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5964501822223838</v>
+        <v>0.5599887153153481</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.18115388632763</v>
+        <v>101.5386900381252</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6669031192526322</v>
+        <v>0.9566053725535892</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>95.01975204637097</v>
+        <v>-1159.391436034502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9593935049086038</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-702.6695883584272</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7520135264455681</v>
+        <v>0.5715998057456155</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12379.92370335981</v>
+        <v>11900.36020290029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004304007530613235</v>
+        <v>0.0001917428307964682</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-325.0464316156533</v>
+        <v>-321.3686696212269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8017791009860277</v>
+        <v>0.8039465830246832</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1039.160531366198</v>
+        <v>-1037.148824867912</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4803523511261473</v>
+        <v>0.481148375581694</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1691.357350062345</v>
+        <v>1680.279564953109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004558734518833749</v>
+        <v>0.0004800693162758961</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213.369534913516</v>
+        <v>-218.4321282198321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6645076291511678</v>
+        <v>0.656853102912619</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>897.5024104212839</v>
+        <v>896.3547766019526</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1115038058062277</v>
+        <v>0.1119139201357688</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.502433844311</v>
+        <v>180.737064817744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7099764849291612</v>
+        <v>0.7140815785205914</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-76.56348197074945</v>
+        <v>-73.90185200460105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6404601156715968</v>
+        <v>0.6516757437461836</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2644.210511729414</v>
+        <v>-2646.268809998403</v>
       </c>
       <c r="C10" t="n">
-        <v>1.333741768859866e-12</v>
+        <v>1.264963869727339e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-104.8861902592586</v>
+        <v>-104.8122845659423</v>
       </c>
       <c r="C11" t="n">
-        <v>2.466808221503595e-09</v>
+        <v>2.512545914457839e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>418.1092858709798</v>
+        <v>421.7194333287085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01106260741561337</v>
+        <v>0.01020532814901508</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.1032079209044</v>
+        <v>575.6402788610058</v>
       </c>
       <c r="C13" t="n">
-        <v>1.089150695043761e-08</v>
+        <v>2.134229998645338e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05020053551626808</v>
+        <v>0.05086937327685787</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5567071954225751</v>
+        <v>0.5513014056052228</v>
       </c>
     </row>
     <row r="15">
@@ -1985,62 +1920,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002149473400869889</v>
+        <v>0.0002065429113170239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04842934706363579</v>
+        <v>0.05087016857046478</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7.422496859696286</v>
+        <v>1.094885542348543</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7453244739913681</v>
+        <v>0.9622213010248614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.9477279792639979</v>
+        <v>-1201.265707813371</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9684455922520084</v>
+        <v>0.520736545554781</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1208.262789784741</v>
+        <v>-1757.133220207456</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5183867611683816</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1476.422629690679</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5098516906232781</v>
+        <v>0.395171115224568</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10992.07736081373</v>
+        <v>10683.55907704171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001538679347334203</v>
+        <v>0.0007076749107721683</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-217.7402051479258</v>
+        <v>-216.099468808671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.867779052303807</v>
+        <v>0.8687481612049405</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-680.5917680618384</v>
+        <v>-673.6651844175205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.655035003528704</v>
+        <v>0.6582098672951096</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1990.269588490194</v>
+        <v>1984.379779327656</v>
       </c>
       <c r="C5" t="n">
-        <v>3.594974858818956e-05</v>
+        <v>3.672725878786293e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146.4333635427373</v>
+        <v>-149.3317361543551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7650902758531297</v>
+        <v>0.7604639539788821</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1210.545992195093</v>
+        <v>1211.243265474636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0320378097626076</v>
+        <v>0.03191521614432858</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.0210771698064</v>
+        <v>166.6458904604883</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7352843214973344</v>
+        <v>0.7373183716416272</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.86516578941144</v>
+        <v>13.62720762019634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9424165218576364</v>
+        <v>0.9337918678560433</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2739.384919891701</v>
+        <v>-2740.917158065103</v>
       </c>
       <c r="C10" t="n">
-        <v>2.240391328079099e-13</v>
+        <v>2.136995556258073e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-115.1163218917662</v>
+        <v>-115.0656601302778</v>
       </c>
       <c r="C11" t="n">
-        <v>5.762408053037797e-11</v>
+        <v>5.819365578512911e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>524.7126288168852</v>
+        <v>527.2578990562847</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001456737263657546</v>
+        <v>0.001339492237522793</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497.9166066255819</v>
+        <v>506.2155591980494</v>
       </c>
       <c r="C13" t="n">
-        <v>5.131113315545859e-07</v>
+        <v>2.86103819954611e-08</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08616287818323218</v>
+        <v>0.08664913119754333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3094864017961408</v>
+        <v>0.3065305516679122</v>
       </c>
     </row>
     <row r="15">
@@ -2255,62 +2177,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001631738219648685</v>
+        <v>0.0001577323733753356</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1311957259293143</v>
+        <v>0.1331976550745599</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.892416492301527</v>
+        <v>12.75773548632773</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8309771067372461</v>
+        <v>0.5783928154081747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.4634458484241</v>
+        <v>-740.3386953132149</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6292786729406681</v>
+        <v>0.6953742121073914</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-736.2292269311511</v>
+        <v>-1831.097204452203</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6970312402223215</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1638.479830125646</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4648199769419999</v>
+        <v>0.3721449428229351</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12029.48724615359</v>
+        <v>11642.96756269611</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005038919658757957</v>
+        <v>0.0002159398805284653</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-830.9292956537917</v>
+        <v>-829.309573643659</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5254959728311621</v>
+        <v>0.526249998104082</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1868.672154004964</v>
+        <v>-1864.313016142398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2146132346316265</v>
+        <v>0.2156034887527019</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2094.896967255207</v>
+        <v>2087.116064718196</v>
       </c>
       <c r="C5" t="n">
-        <v>1.325181127555078e-05</v>
+        <v>1.373228822224669e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-170.4927997414588</v>
+        <v>-172.0062052889368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7268766852214674</v>
+        <v>0.724501749966211</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>618.1968220910471</v>
+        <v>619.3447092792771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2690953655777467</v>
+        <v>0.2681368166368107</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-52.25818143839206</v>
+        <v>-52.25614386852652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9160492860224415</v>
+        <v>0.9160426154251166</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.14393672829332</v>
+        <v>41.57439199578472</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8091030621187469</v>
+        <v>0.7971704707194212</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2426.005528955623</v>
+        <v>-2426.714378273477</v>
       </c>
       <c r="C10" t="n">
-        <v>6.578983637066847e-11</v>
+        <v>6.455524316122984e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-89.05443786658201</v>
+        <v>-89.00443899905727</v>
       </c>
       <c r="C11" t="n">
-        <v>3.50631500286723e-07</v>
+        <v>3.542764145022954e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>552.3522296320036</v>
+        <v>555.5341455721651</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007757808791103174</v>
+        <v>0.0006995281022068072</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>529.338030389124</v>
+        <v>539.8762517054697</v>
       </c>
       <c r="C13" t="n">
-        <v>7.355319245509221e-08</v>
+        <v>2.217129706686203e-09</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07482340065758376</v>
+        <v>0.07535938209742798</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3808252917056425</v>
+        <v>0.3772376497735342</v>
       </c>
     </row>
     <row r="15">
@@ -2525,62 +2434,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000187818645972847</v>
+        <v>0.0001811528843392804</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08543851730355691</v>
+        <v>0.08851748241844667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6.16205862061412</v>
+        <v>-10.67335006559429</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7872196358312318</v>
+        <v>0.6429161817189002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-12.23825827071697</v>
+        <v>-1316.314272039459</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6062412605675001</v>
+        <v>0.4846716672198121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1318.358894199667</v>
+        <v>-2086.975574641722</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4840489633763297</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1846.697624597308</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4110026919529023</v>
+        <v>0.311509176698494</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11617.67926534924</v>
+        <v>10704.96451224904</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007990088379537523</v>
+        <v>0.0006861625079162814</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-306.498369136493</v>
+        <v>-323.3531219986471</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8280058093277566</v>
+        <v>0.8186628552784111</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-881.2238456213508</v>
+        <v>-874.5201260041547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5505391916120983</v>
+        <v>0.5535348142767433</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1923.457802318572</v>
+        <v>1903.982296135632</v>
       </c>
       <c r="C5" t="n">
-        <v>6.678677719921049e-05</v>
+        <v>7.63962474190683e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30.10974543918906</v>
+        <v>-38.59692085643891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9511010081536591</v>
+        <v>0.9373150179153391</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1330.953241245713</v>
+        <v>1326.330609338577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01770034963958106</v>
+        <v>0.01808007523646655</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.8213048417553</v>
+        <v>99.24664177364885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.833420336319964</v>
+        <v>0.8421237059743529</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.76460338663901</v>
+        <v>41.07307894638674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8314251414406285</v>
+        <v>0.8010514215401214</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2300.861986846438</v>
+        <v>-2307.364226933302</v>
       </c>
       <c r="C10" t="n">
-        <v>7.005285527635887e-10</v>
+        <v>6.166992358769356e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-101.9938535733459</v>
+        <v>-101.9897098729942</v>
       </c>
       <c r="C11" t="n">
-        <v>5.707683956393008e-09</v>
+        <v>5.700507109308958e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>375.7736877872544</v>
+        <v>383.7997585570448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02265211747910331</v>
+        <v>0.01954744574887977</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.3193816698936</v>
+        <v>556.3081415914099</v>
       </c>
       <c r="C13" t="n">
-        <v>9.00875520923941e-08</v>
+        <v>1.113729174259582e-09</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08283479813350744</v>
+        <v>0.08443057146105937</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3310011758841856</v>
+        <v>0.3215249434616607</v>
       </c>
     </row>
     <row r="15">
@@ -2795,62 +2691,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001905465622247318</v>
+        <v>0.0001736899137535447</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08239043859937532</v>
+        <v>0.1027206123777234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.58482529092135</v>
+        <v>7.45923436415393</v>
       </c>
       <c r="C16" t="n">
-        <v>0.52464347977047</v>
+        <v>0.7444317383804783</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.642166833065283</v>
+        <v>-793.0156019068022</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8776425075820778</v>
+        <v>0.6758768751677316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-800.8445159971285</v>
+        <v>-2358.02511300025</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6728918168387337</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1787.987161034297</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4296911970912888</v>
+        <v>0.2567430541337328</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_commute/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ01138204" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ01537351" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ01866426" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ02169297" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ02486185" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02801492" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ03103014" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ03419073" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ03738028" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05035044" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ05319191" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ05662320" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ05979423" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ06282055" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ06580727" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ06884312" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07203291" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ07561351" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9471.827650863632</v>
+        <v>9471.827652494792</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002645594828270439</v>
+        <v>0.00264559482471605</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1255.765357225305</v>
+        <v>-1255.76535720503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3276416636503264</v>
+        <v>0.3276416636505056</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1769.156772526004</v>
+        <v>-1769.156772624995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2698317099690998</v>
+        <v>0.2698317099450777</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2010.079307101133</v>
+        <v>2010.079306973354</v>
       </c>
       <c r="C5" t="n">
-        <v>2.229261881110751e-05</v>
+        <v>2.229261887144502e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187.5726055824297</v>
+        <v>-187.5726056140394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7000498869657898</v>
+        <v>0.7000498869177292</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1296.468295965356</v>
+        <v>1296.468295903731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02029316502579697</v>
+        <v>0.02029316503143315</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.96185162653376</v>
+        <v>19.96185158318838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9674493315281949</v>
+        <v>0.9674493315988604</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.26095088635898</v>
+        <v>21.26095093422855</v>
       </c>
       <c r="C9" t="n">
-        <v>0.895705099048924</v>
+        <v>0.8957050988184986</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2295.341429892558</v>
+        <v>-2295.341429852574</v>
       </c>
       <c r="C10" t="n">
-        <v>4.904066156174181e-10</v>
+        <v>4.904066159849458e-10</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-88.20675825972324</v>
+        <v>-88.20675826020383</v>
       </c>
       <c r="C11" t="n">
-        <v>3.573116876938855e-07</v>
+        <v>3.573116876498542e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>555.5186846688964</v>
+        <v>555.5186845242738</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006172398764986397</v>
+        <v>0.0006172398785412244</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>574.9643878339473</v>
+        <v>574.9643877748745</v>
       </c>
       <c r="C13" t="n">
-        <v>1.800249997170276e-10</v>
+        <v>1.800250005916132e-10</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05089634992970609</v>
+        <v>5.089634996208016</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5464063303667099</v>
+        <v>0.5464063301133627</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002351202549426318</v>
+        <v>235.1202549397426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02561432869089527</v>
+        <v>0.02561432870905894</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.471766015240815</v>
+        <v>-1.471766015239458</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9484987719071374</v>
+        <v>0.9484987719071849</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>260.8170284736325</v>
+        <v>2.60817028473619</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8898135428706577</v>
+        <v>0.8898135428706636</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-645.1807436750812</v>
+        <v>-6.451807436750668</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7533610887478496</v>
+        <v>0.7533610887478549</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11153.35366871347</v>
+        <v>11153.35366885348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004733485720456794</v>
+        <v>0.0004733485720003697</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-719.6348476665378</v>
+        <v>-719.6348477040384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.586892180150995</v>
+        <v>0.5868921801508338</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-625.1143978214742</v>
+        <v>-625.1143978717652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6901306201489527</v>
+        <v>0.6901306201269995</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2040.602811946429</v>
+        <v>2040.602811912445</v>
       </c>
       <c r="C5" t="n">
-        <v>3.117733653554012e-05</v>
+        <v>3.117733656651427e-05</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80.59496309544943</v>
+        <v>-80.59496309122818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8717252835509861</v>
+        <v>0.871725283557637</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>985.9148124603678</v>
+        <v>985.9148124608425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08233731880848039</v>
+        <v>0.08233731880834201</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>388.6256945679735</v>
+        <v>388.6256945782628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4405516934984204</v>
+        <v>0.4405516934861483</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-21.1832423501961</v>
+        <v>-21.18324234655222</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8971278452592013</v>
+        <v>0.8971278452771754</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2633.9645347219</v>
+        <v>-2633.964534725756</v>
       </c>
       <c r="C10" t="n">
-        <v>3.327064959752512e-12</v>
+        <v>3.327064959463703e-12</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-106.42938732764</v>
+        <v>-106.4293873336905</v>
       </c>
       <c r="C11" t="n">
-        <v>1.790228019136055e-09</v>
+        <v>1.790228017022468e-09</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>515.9395741032852</v>
+        <v>515.9395741750355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001876634774872738</v>
+        <v>0.00187663477199719</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.3537413319748</v>
+        <v>516.3537413243077</v>
       </c>
       <c r="C13" t="n">
-        <v>5.076448194840101e-08</v>
+        <v>5.076448197762996e-08</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03268480858298434</v>
+        <v>3.268480857673237</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7028894539920884</v>
+        <v>0.7028894540456037</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001601288620813783</v>
+        <v>160.1288620949595</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1305621624573785</v>
+        <v>0.1305621624513841</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.578110095882903</v>
+        <v>3.578110095882979</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8773318829728703</v>
+        <v>0.8773318829728678</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-103.8930883275127</v>
+        <v>-1.03893088327606</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9566863282896614</v>
+        <v>0.9566863282896224</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-757.4020467793692</v>
+        <v>-7.5740204677976</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7170287230994962</v>
+        <v>0.7170287230993564</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12011.93640997581</v>
+        <v>12011.93640995093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001361611313127018</v>
+        <v>0.0001361611313155311</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-875.0398013809913</v>
+        <v>-875.0398013702036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5007824688958713</v>
+        <v>0.5007824688956031</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1265.539230009484</v>
+        <v>-1265.539229911142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3955700880203299</v>
+        <v>0.3955700880522888</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1731.517731846032</v>
+        <v>1731.517731896367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003424597682863055</v>
+        <v>0.0003424597679363124</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.48713160378639</v>
+        <v>59.48713162046101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9025870826266723</v>
+        <v>0.9025870825994686</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1142.471512001064</v>
+        <v>1142.471512027686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04206825311915333</v>
+        <v>0.04206825311471775</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-290.635538382668</v>
+        <v>-290.63553837752</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5556632435815317</v>
+        <v>0.5556632435884434</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-34.9516172489032</v>
+        <v>-34.95161723783536</v>
       </c>
       <c r="C9" t="n">
-        <v>0.829433940715833</v>
+        <v>0.8294339407703479</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2211.355289139461</v>
+        <v>-2211.355289111404</v>
       </c>
       <c r="C10" t="n">
-        <v>2.527680171053689e-09</v>
+        <v>2.52768017236447e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-97.83279179048716</v>
+        <v>-97.83279178356531</v>
       </c>
       <c r="C11" t="n">
-        <v>1.99508731702328e-08</v>
+        <v>1.995087319959307e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>687.6945823014318</v>
+        <v>687.6945821765279</v>
       </c>
       <c r="C12" t="n">
-        <v>2.75212153178754e-05</v>
+        <v>2.752121540539408e-05</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.6077106014532</v>
+        <v>490.6077105925268</v>
       </c>
       <c r="C13" t="n">
-        <v>6.911966611098193e-08</v>
+        <v>6.911966615206072e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01814069205508032</v>
+        <v>-1.814069206891546</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8310041412744633</v>
+        <v>0.8310041411467917</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001467533121574466</v>
+        <v>146.753312160086</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1668880558568876</v>
+        <v>0.1668880558238675</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11.39243008021436</v>
+        <v>-11.39243008021409</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6177322120574986</v>
+        <v>0.6177322120575067</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>681.3326412212064</v>
+        <v>6.81332641221005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7178237147768498</v>
+        <v>0.7178237147769271</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>128.4438683119686</v>
+        <v>1.284438683115006</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9501471808094153</v>
+        <v>0.9501471808095966</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10072.82285239005</v>
+        <v>10072.8228524734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001340828059843106</v>
+        <v>0.001340828059743457</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1503.464699075062</v>
+        <v>-1503.46469931426</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2504214012910248</v>
+        <v>0.2504214012909623</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-393.6839113819547</v>
+        <v>-393.6839113168013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7927644251761337</v>
+        <v>0.7927644252089097</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2316.52806361471</v>
+        <v>2316.528063632337</v>
       </c>
       <c r="C5" t="n">
-        <v>1.078797524223866e-06</v>
+        <v>1.078797523775678e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.12352195332377</v>
+        <v>18.12352194846409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9702159818852649</v>
+        <v>0.9702159818932493</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1566.112878871587</v>
+        <v>1566.112878870427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005121534243075076</v>
+        <v>0.005121534243106762</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>373.9291065303815</v>
+        <v>373.929106515857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4463815025949824</v>
+        <v>0.4463815026127961</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-61.81452414431357</v>
+        <v>-61.81452418636052</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7006002870433823</v>
+        <v>0.7006002868431125</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2686.179854913584</v>
+        <v>-2686.179854900028</v>
       </c>
       <c r="C10" t="n">
-        <v>3.77021713951799e-13</v>
+        <v>3.770217140598789e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-93.27768029565237</v>
+        <v>-93.27768029492057</v>
       </c>
       <c r="C11" t="n">
-        <v>9.300486366234579e-08</v>
+        <v>9.300486367865031e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>556.031127614674</v>
+        <v>556.0311275794311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005438697250242521</v>
+        <v>0.0005438697254865799</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>587.4755044344111</v>
+        <v>587.4755043861699</v>
       </c>
       <c r="C13" t="n">
-        <v>1.971878733576974e-10</v>
+        <v>1.971878740618997e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05371206620153111</v>
+        <v>5.37120661703311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5213470649297051</v>
+        <v>0.5213470651700731</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001814775940311682</v>
+        <v>181.477594016837</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07718038751729728</v>
+        <v>0.07718038755983557</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.711664253426465</v>
+        <v>-2.711664253424997</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9048231769625381</v>
+        <v>0.9048231769625896</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1127.338234221675</v>
+        <v>11.27338234221477</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5402903668466926</v>
+        <v>0.5402903668467613</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1198.528453553941</v>
+        <v>-11.98528453554372</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5612638171849424</v>
+        <v>0.5612638171848015</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9539.082753858907</v>
+        <v>9539.08275408838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002447803851308408</v>
+        <v>0.002447803851035338</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-526.82301959477</v>
+        <v>-526.8230196684239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6796151728534239</v>
+        <v>0.6796151728525007</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1177.308393558712</v>
+        <v>-1177.308393596832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4263887727304414</v>
+        <v>0.426388772718462</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1760.202610696977</v>
+        <v>1760.202610687965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002503394842147629</v>
+        <v>0.0002503394842817724</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163.5101094447417</v>
+        <v>-163.5101094397748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7360662646315917</v>
+        <v>0.7360662646392662</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>969.3616769477972</v>
+        <v>969.3616769470852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08324225344625563</v>
+        <v>0.08324225344647183</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190.028762221859</v>
+        <v>190.0287622297398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7015024969601152</v>
+        <v>0.7015024969481942</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.44814537624502</v>
+        <v>39.44814536813098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8070368372491852</v>
+        <v>0.8070368372861865</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2479.105868009149</v>
+        <v>-2479.105868024113</v>
       </c>
       <c r="C10" t="n">
-        <v>2.692920577904862e-11</v>
+        <v>2.692920576992532e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-96.72127241652699</v>
+        <v>-96.7212724182005</v>
       </c>
       <c r="C11" t="n">
-        <v>3.053733335055388e-08</v>
+        <v>3.053733334452543e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>470.6592549985928</v>
+        <v>470.6592549956697</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003903703086041094</v>
+        <v>0.003903703086285649</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.8605434802525</v>
+        <v>556.8605435219858</v>
       </c>
       <c r="C13" t="n">
-        <v>1.069742720004016e-09</v>
+        <v>1.06974271652527e-09</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0500822251735524</v>
+        <v>5.00822251859416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5529780951292103</v>
+        <v>0.5529780950331741</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001507019350978041</v>
+        <v>150.7019351088388</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1499451397193682</v>
+        <v>0.1499451396691823</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.34059061003213</v>
+        <v>13.34059061003185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5599887153153481</v>
+        <v>0.5599887153153562</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.5386900381252</v>
+        <v>1.015386900380422</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9566053725535892</v>
+        <v>0.9566053725536247</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1159.391436034502</v>
+        <v>-11.59391436034577</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5715998057456155</v>
+        <v>0.5715998057455907</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11900.36020290029</v>
+        <v>11900.36020269664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001917428307964682</v>
+        <v>0.0001917428307938811</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-321.3686696212269</v>
+        <v>-321.368669655115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8039465830246832</v>
+        <v>0.8039465830245609</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1037.148824867912</v>
+        <v>-1037.148824895302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.481148375581694</v>
+        <v>0.4811483755735796</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1680.279564953109</v>
+        <v>1680.279564918905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004800693162758961</v>
+        <v>0.0004800693169335</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218.4321282198321</v>
+        <v>-218.4321282297913</v>
       </c>
       <c r="C6" t="n">
-        <v>0.656853102912619</v>
+        <v>0.6568531028982121</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>896.3547766019526</v>
+        <v>896.3547765889796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1119139201357688</v>
+        <v>0.1119139201409726</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.737064817744</v>
+        <v>180.7370648099278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7140815785205914</v>
+        <v>0.7140815785328158</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-73.90185200460105</v>
+        <v>-73.90185200029877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6516757437461836</v>
+        <v>0.6516757437684262</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2646.268809998403</v>
+        <v>-2646.268810005191</v>
       </c>
       <c r="C10" t="n">
-        <v>1.264963869727339e-12</v>
+        <v>1.264963869470913e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-104.8122845659423</v>
+        <v>-104.8122845663658</v>
       </c>
       <c r="C11" t="n">
-        <v>2.512545914457839e-09</v>
+        <v>2.512545914469625e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>421.7194333287085</v>
+        <v>421.7194332657635</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01020532814901508</v>
+        <v>0.01020532816139686</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>575.6402788610058</v>
+        <v>575.6402788530157</v>
       </c>
       <c r="C13" t="n">
-        <v>2.134229998645338e-10</v>
+        <v>2.134230000240913e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05086937327685787</v>
+        <v>5.086937328148066</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5513014056052228</v>
+        <v>0.5513014055702579</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002065429113170239</v>
+        <v>206.5429113126902</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05087016857046478</v>
+        <v>0.05087016858237003</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.094885542348543</v>
+        <v>1.094885542350307</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9622213010248614</v>
+        <v>0.9622213010248005</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1201.265707813371</v>
+        <v>-12.01265707813377</v>
       </c>
       <c r="C17" t="n">
-        <v>0.520736545554781</v>
+        <v>0.520736545554779</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1757.133220207456</v>
+        <v>-17.57133220207424</v>
       </c>
       <c r="C18" t="n">
-        <v>0.395171115224568</v>
+        <v>0.3951711152245765</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10683.55907704171</v>
+        <v>10683.55907733682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007076749107721683</v>
+        <v>0.0007076749108747341</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-216.099468808671</v>
+        <v>-216.0994688041409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8687481612049405</v>
+        <v>0.8687481612047609</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-673.6651844175205</v>
+        <v>-673.6651844147466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6582098672951096</v>
+        <v>0.658209867296039</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1984.379779327656</v>
+        <v>1984.379779327783</v>
       </c>
       <c r="C5" t="n">
-        <v>3.672725878786293e-05</v>
+        <v>3.672725878778287e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149.3317361543551</v>
+        <v>-149.3317361567951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7604639539788821</v>
+        <v>0.7604639539751414</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1211.243265474636</v>
+        <v>1211.243265475125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03191521614432858</v>
+        <v>0.03191521614426454</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.6458904604883</v>
+        <v>166.6458904639838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7373183716416272</v>
+        <v>0.7373183716360761</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.62720762019634</v>
+        <v>13.62720761631321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9337918678560433</v>
+        <v>0.9337918678740071</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2740.917158065103</v>
+        <v>-2740.9171580634</v>
       </c>
       <c r="C10" t="n">
-        <v>2.136995556258073e-13</v>
+        <v>2.136995556378163e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-115.0656601302778</v>
+        <v>-115.0656601305447</v>
       </c>
       <c r="C11" t="n">
-        <v>5.819365578512911e-11</v>
+        <v>5.819365579030291e-11</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>527.2578990562847</v>
+        <v>527.2578990310326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001339492237522793</v>
+        <v>0.001339492238451948</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.2155591980494</v>
+        <v>506.2155592095681</v>
       </c>
       <c r="C13" t="n">
-        <v>2.86103819954611e-08</v>
+        <v>2.861038196771463e-08</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08664913119754333</v>
+        <v>8.664913119842959</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3065305516679122</v>
+        <v>0.3065305516630948</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001577323733753356</v>
+        <v>157.7323733696923</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1331976550745599</v>
+        <v>0.1331976550867897</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.75773548632773</v>
+        <v>12.75773548632893</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5783928154081747</v>
+        <v>0.5783928154081386</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-740.3386953132149</v>
+        <v>-7.403386953132768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6953742121073914</v>
+        <v>0.6953742121073672</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1831.097204452203</v>
+        <v>-18.31097204452186</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3721449428229351</v>
+        <v>0.3721449428229402</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11642.96756269611</v>
+        <v>11642.96756199756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002159398805284653</v>
+        <v>0.0002159398806415118</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-829.309573643659</v>
+        <v>-829.3095736221541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.526249998104082</v>
+        <v>0.5262499981034765</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1864.313016142398</v>
+        <v>-1864.313016161163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2156034887527019</v>
+        <v>0.2156034887489253</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2087.116064718196</v>
+        <v>2087.116064727918</v>
       </c>
       <c r="C5" t="n">
-        <v>1.373228822224669e-05</v>
+        <v>1.373228821846606e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172.0062052889368</v>
+        <v>-172.0062052834019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.724501749966211</v>
+        <v>0.7245017499746134</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619.3447092792771</v>
+        <v>619.3447092836474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2681368166368107</v>
+        <v>0.2681368166334613</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-52.25614386852652</v>
+        <v>-52.25614385667623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9160426154251166</v>
+        <v>0.9160426154440013</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.57439199578472</v>
+        <v>41.5743919957953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7971704707194212</v>
+        <v>0.7971704707193845</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2426.714378273477</v>
+        <v>-2426.71437826683</v>
       </c>
       <c r="C10" t="n">
-        <v>6.455524316122984e-11</v>
+        <v>6.455524317031082e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-89.00443899905727</v>
+        <v>-89.00443899988007</v>
       </c>
       <c r="C11" t="n">
-        <v>3.542764145022954e-07</v>
+        <v>3.542764144509872e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>555.5341455721651</v>
+        <v>555.5341455861976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006995281022068072</v>
+        <v>0.0006995281019553071</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.8762517054697</v>
+        <v>539.8762517227417</v>
       </c>
       <c r="C13" t="n">
-        <v>2.217129706686203e-09</v>
+        <v>2.217129703795584e-09</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07535938209742798</v>
+        <v>7.535938208607913</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3772376497735342</v>
+        <v>0.3772376498412983</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001811528843392804</v>
+        <v>181.1528842857061</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08851748241844667</v>
+        <v>0.08851748253123597</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-10.67335006559429</v>
+        <v>-10.67335006559468</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6429161817189002</v>
+        <v>0.6429161817188878</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1316.314272039459</v>
+        <v>-13.16314272039506</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4846716672198121</v>
+        <v>0.4846716672197959</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2086.975574641722</v>
+        <v>-20.86975574641719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.311509176698494</v>
+        <v>0.3115091766984951</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10704.96451224904</v>
+        <v>10704.96451275253</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006861625079162814</v>
+        <v>0.0006861625080281057</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-323.3531219986471</v>
+        <v>-323.3531220133606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8186628552784111</v>
+        <v>0.8186628552791182</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-874.5201260041547</v>
+        <v>-874.5201259998664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5535348142767433</v>
+        <v>0.5535348142782333</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1903.982296135632</v>
+        <v>1903.982296135361</v>
       </c>
       <c r="C5" t="n">
-        <v>7.63962474190683e-05</v>
+        <v>7.639624742008987e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38.59692085643891</v>
+        <v>-38.59692085250029</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9373150179153391</v>
+        <v>0.9373150179217199</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1326.330609338577</v>
+        <v>1326.330609346086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01808007523646655</v>
+        <v>0.01808007523581817</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.24664177364885</v>
+        <v>99.2466417812482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8421237059743529</v>
+        <v>0.8421237059622447</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.07307894638674</v>
+        <v>41.07307894954174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8010514215401214</v>
+        <v>0.801051421526195</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2307.364226933302</v>
+        <v>-2307.364226934148</v>
       </c>
       <c r="C10" t="n">
-        <v>6.166992358769356e-10</v>
+        <v>6.166992358662242e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-101.9897098729942</v>
+        <v>-101.9897098727011</v>
       </c>
       <c r="C11" t="n">
-        <v>5.700507109308958e-09</v>
+        <v>5.700507109069361e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>383.7997585570448</v>
+        <v>383.7997585242703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01954744574887977</v>
+        <v>0.01954744575999717</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.3081415914099</v>
+        <v>556.3081416070631</v>
       </c>
       <c r="C13" t="n">
-        <v>1.113729174259582e-09</v>
+        <v>1.113729172310806e-09</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08443057146105937</v>
+        <v>8.443057145991077</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3215249434616607</v>
+        <v>0.3215249434676252</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001736899137535447</v>
+        <v>173.6899137056729</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1027206123777234</v>
+        <v>0.1027206124877929</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.45923436415393</v>
+        <v>7.45923436415513</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7444317383804783</v>
+        <v>0.7444317383804386</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-793.0156019068022</v>
+        <v>-7.930156019068727</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6758768751677316</v>
+        <v>0.6758768751677044</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2358.02511300025</v>
+        <v>-23.58025113000285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2567430541337328</v>
+        <v>0.2567430541337261</v>
       </c>
     </row>
   </sheetData>
